--- a/opm_hero_property/heroes/88.xlsx
+++ b/opm_hero_property/heroes/88.xlsx
@@ -14,6 +14,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="talent" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mechanical" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="limiter" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="status" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1197,7 +1198,7 @@
         <v>11170</v>
       </c>
       <c r="D4" t="n">
-        <v>11170</v>
+        <v>11206</v>
       </c>
       <c r="E4" t="n">
         <v>231</v>
@@ -1304,7 +1305,7 @@
         <v>12496</v>
       </c>
       <c r="D5" t="n">
-        <v>12496</v>
+        <v>12574</v>
       </c>
       <c r="E5" t="n">
         <v>347</v>
@@ -1411,7 +1412,7 @@
         <v>14056</v>
       </c>
       <c r="D6" t="n">
-        <v>14056</v>
+        <v>14182</v>
       </c>
       <c r="E6" t="n">
         <v>475</v>
@@ -1518,7 +1519,7 @@
         <v>15849</v>
       </c>
       <c r="D7" t="n">
-        <v>15849</v>
+        <v>17540</v>
       </c>
       <c r="E7" t="n">
         <v>891</v>
@@ -1625,7 +1626,7 @@
         <v>17877</v>
       </c>
       <c r="D8" t="n">
-        <v>17877</v>
+        <v>22185</v>
       </c>
       <c r="E8" t="n">
         <v>1320</v>
@@ -1732,7 +1733,7 @@
         <v>20217</v>
       </c>
       <c r="D9" t="n">
-        <v>20217</v>
+        <v>28438</v>
       </c>
       <c r="E9" t="n">
         <v>1743</v>
@@ -1839,7 +1840,7 @@
         <v>21465</v>
       </c>
       <c r="D10" t="n">
-        <v>21465</v>
+        <v>33645</v>
       </c>
       <c r="E10" t="n">
         <v>2060</v>
@@ -1946,7 +1947,7 @@
         <v>22946</v>
       </c>
       <c r="D11" t="n">
-        <v>22946</v>
+        <v>40039</v>
       </c>
       <c r="E11" t="n">
         <v>2403</v>
@@ -2053,7 +2054,7 @@
         <v>26066</v>
       </c>
       <c r="D12" t="n">
-        <v>26066</v>
+        <v>51420</v>
       </c>
       <c r="E12" t="n">
         <v>2957</v>
@@ -2160,7 +2161,7 @@
         <v>26690</v>
       </c>
       <c r="D13" t="n">
-        <v>26690</v>
+        <v>53028</v>
       </c>
       <c r="E13" t="n">
         <v>3327</v>
@@ -2267,7 +2268,7 @@
         <v>27314</v>
       </c>
       <c r="D14" t="n">
-        <v>27314</v>
+        <v>54637</v>
       </c>
       <c r="E14" t="n">
         <v>3697</v>
@@ -2374,7 +2375,7 @@
         <v>27938</v>
       </c>
       <c r="D15" t="n">
-        <v>27938</v>
+        <v>56245</v>
       </c>
       <c r="E15" t="n">
         <v>4067</v>
@@ -2481,7 +2482,7 @@
         <v>28562</v>
       </c>
       <c r="D16" t="n">
-        <v>28562</v>
+        <v>57854</v>
       </c>
       <c r="E16" t="n">
         <v>4436</v>
@@ -2588,7 +2589,7 @@
         <v>29186</v>
       </c>
       <c r="D17" t="n">
-        <v>29186</v>
+        <v>59462</v>
       </c>
       <c r="E17" t="n">
         <v>4806</v>
@@ -6534,4 +6535,2652 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AK23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>战斗类型</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>品质</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>pve等级</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>等级强化</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>装备品质%</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>装备强化%</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>天赋</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>研究所核心</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>职阶</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>限制器</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>机械核心</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>HeroId</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Level</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>EnhancePeriod</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Equips</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>TalentLevel</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Skills</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>hp</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>atk</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>crit</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>crit_res</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>crit_dmg</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>precise</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>parry</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>dmg_res</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>fury</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>show_level</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>chase</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>academy</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>limiter</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>mechanical</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>aura</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>type_aura</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>81</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>88</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>81</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>3,2,1,1,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>29635.962228</v>
+      </c>
+      <c r="U2" t="n">
+        <v>5458.9799136</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1997.1396172</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X2" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>2750</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>121</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>88</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>121</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>3,2,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>41998.24660100001</v>
+      </c>
+      <c r="U3" t="n">
+        <v>7772.115488799999</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3008.22217</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X3" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>2750</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>121</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>161</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>88</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>161</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>76898.90462</v>
+      </c>
+      <c r="U4" t="n">
+        <v>13582.0675</v>
+      </c>
+      <c r="V4" t="n">
+        <v>6225.06366</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X4" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>2750</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>161</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>15</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>88</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>161</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>76898.90462</v>
+      </c>
+      <c r="U5" t="n">
+        <v>13582.0675</v>
+      </c>
+      <c r="V5" t="n">
+        <v>6225.06366</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X5" t="n">
+        <v>470</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>2820</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>161</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>88</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>161</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>4,3,2,2,1,1,0,0,2</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>65755.64402000001</v>
+      </c>
+      <c r="U6" t="n">
+        <v>12647.0425</v>
+      </c>
+      <c r="V6" t="n">
+        <v>5588.527859999999</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X6" t="n">
+        <v>470</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>2070</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="n">
+        <v>240</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>25</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>88</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>240</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>5,3,3,3,0,2,1,0,0</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>281466.592178</v>
+      </c>
+      <c r="U7" t="n">
+        <v>47086.077664</v>
+      </c>
+      <c r="V7" t="n">
+        <v>26379.844084</v>
+      </c>
+      <c r="W7" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X7" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>4560</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="n">
+        <v>240</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>88</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>240</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,2,1,0,1</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>231080.655038</v>
+      </c>
+      <c r="U8" t="n">
+        <v>43135.037344</v>
+      </c>
+      <c r="V8" t="n">
+        <v>23049.989164</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X8" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>3810</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" t="n">
+        <v>240</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" t="n">
+        <v>25</v>
+      </c>
+      <c r="I9" t="n">
+        <v>15</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>88</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>240</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>10</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>247875.967418</v>
+      </c>
+      <c r="U9" t="n">
+        <v>44452.05078399999</v>
+      </c>
+      <c r="V9" t="n">
+        <v>24159.940804</v>
+      </c>
+      <c r="W9" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X9" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>4060</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="n">
+        <v>240</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H10" t="n">
+        <v>25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>88</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>240</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>20</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>264671.279798</v>
+      </c>
+      <c r="U10" t="n">
+        <v>45769.06422399999</v>
+      </c>
+      <c r="V10" t="n">
+        <v>25269.892444</v>
+      </c>
+      <c r="W10" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X10" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>4310</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="n">
+        <v>240</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>30</v>
+      </c>
+      <c r="H11" t="n">
+        <v>25</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>88</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>240</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>30</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,1,0,10</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>281466.592178</v>
+      </c>
+      <c r="U11" t="n">
+        <v>47086.077664</v>
+      </c>
+      <c r="V11" t="n">
+        <v>26379.844084</v>
+      </c>
+      <c r="W11" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X11" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>4560</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>240</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>30</v>
+      </c>
+      <c r="H12" t="n">
+        <v>25</v>
+      </c>
+      <c r="I12" t="n">
+        <v>14</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>88</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11</v>
+      </c>
+      <c r="O12" t="n">
+        <v>240</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>30</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,0,0,5</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>281466.592178</v>
+      </c>
+      <c r="U12" t="n">
+        <v>47086.077664</v>
+      </c>
+      <c r="V12" t="n">
+        <v>26379.844084</v>
+      </c>
+      <c r="W12" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X12" t="n">
+        <v>860</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>4490</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" t="n">
+        <v>260</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>30</v>
+      </c>
+      <c r="H13" t="n">
+        <v>35</v>
+      </c>
+      <c r="I13" t="n">
+        <v>24</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>88</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13</v>
+      </c>
+      <c r="O13" t="n">
+        <v>260</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>30</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,0,6</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>421413.811554</v>
+      </c>
+      <c r="U13" t="n">
+        <v>70201.5243504</v>
+      </c>
+      <c r="V13" t="n">
+        <v>44030.7747436</v>
+      </c>
+      <c r="W13" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>4630</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>260</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" t="n">
+        <v>30</v>
+      </c>
+      <c r="H14" t="n">
+        <v>35</v>
+      </c>
+      <c r="I14" t="n">
+        <v>25</v>
+      </c>
+      <c r="J14" t="n">
+        <v>7</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>88</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>13</v>
+      </c>
+      <c r="O14" t="n">
+        <v>260</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>30</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>421413.811554</v>
+      </c>
+      <c r="U14" t="n">
+        <v>70201.5243504</v>
+      </c>
+      <c r="V14" t="n">
+        <v>44030.7747436</v>
+      </c>
+      <c r="W14" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1070</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>4700</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" t="n">
+        <v>300</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>30</v>
+      </c>
+      <c r="H15" t="n">
+        <v>55</v>
+      </c>
+      <c r="I15" t="n">
+        <v>45</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>88</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>15</v>
+      </c>
+      <c r="O15" t="n">
+        <v>300</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>30</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>1044803.479854</v>
+      </c>
+      <c r="U15" t="n">
+        <v>172196.3092576</v>
+      </c>
+      <c r="V15" t="n">
+        <v>120696.4132</v>
+      </c>
+      <c r="W15" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1350</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>4980</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>16</v>
+      </c>
+      <c r="C16" t="n">
+        <v>400</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>30</v>
+      </c>
+      <c r="H16" t="n">
+        <v>95</v>
+      </c>
+      <c r="I16" t="n">
+        <v>85</v>
+      </c>
+      <c r="J16" t="n">
+        <v>10</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>88</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>16</v>
+      </c>
+      <c r="O16" t="n">
+        <v>400</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>30</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>5358882.601052</v>
+      </c>
+      <c r="U16" t="n">
+        <v>891738.9922952</v>
+      </c>
+      <c r="V16" t="n">
+        <v>614219.5784164</v>
+      </c>
+      <c r="W16" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1910</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>5540</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>500</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>30</v>
+      </c>
+      <c r="H17" t="n">
+        <v>160</v>
+      </c>
+      <c r="I17" t="n">
+        <v>150</v>
+      </c>
+      <c r="J17" t="n">
+        <v>10</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>88</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>16</v>
+      </c>
+      <c r="O17" t="n">
+        <v>500</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>30</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>8774742.912766</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1458192.6689208</v>
+      </c>
+      <c r="V17" t="n">
+        <v>997254.3706448</v>
+      </c>
+      <c r="W17" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X17" t="n">
+        <v>2820</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>6450</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>161</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>15</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>88</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>9</v>
+      </c>
+      <c r="O18" t="n">
+        <v>256</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>217820.527905</v>
+      </c>
+      <c r="U18" t="n">
+        <v>43879.487298</v>
+      </c>
+      <c r="V18" t="n">
+        <v>21309.476396</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X18" t="n">
+        <v>470</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>2070</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>256</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="n">
+        <v>200</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>10</v>
+      </c>
+      <c r="H19" t="n">
+        <v>20</v>
+      </c>
+      <c r="I19" t="n">
+        <v>10</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>88</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" t="n">
+        <v>260</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>10</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,0,0,2</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>302909.52793</v>
+      </c>
+      <c r="U19" t="n">
+        <v>56285.4772336</v>
+      </c>
+      <c r="V19" t="n">
+        <v>30030.0521652</v>
+      </c>
+      <c r="W19" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X19" t="n">
+        <v>860</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>3990</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" t="n">
+        <v>240</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>20</v>
+      </c>
+      <c r="H20" t="n">
+        <v>25</v>
+      </c>
+      <c r="I20" t="n">
+        <v>15</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>88</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>11</v>
+      </c>
+      <c r="O20" t="n">
+        <v>264</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>20</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>398233.701322</v>
+      </c>
+      <c r="U20" t="n">
+        <v>69835.42633040001</v>
+      </c>
+      <c r="V20" t="n">
+        <v>42320.989268</v>
+      </c>
+      <c r="W20" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X20" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>4310</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>264</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>13</v>
+      </c>
+      <c r="C21" t="n">
+        <v>260</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>30</v>
+      </c>
+      <c r="H21" t="n">
+        <v>35</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25</v>
+      </c>
+      <c r="J21" t="n">
+        <v>7</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>88</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>13</v>
+      </c>
+      <c r="O21" t="n">
+        <v>266</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>30</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>469752.783633</v>
+      </c>
+      <c r="U21" t="n">
+        <v>81468.2816592</v>
+      </c>
+      <c r="V21" t="n">
+        <v>50505.97263020001</v>
+      </c>
+      <c r="W21" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1070</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>4700</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>266</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>15</v>
+      </c>
+      <c r="C22" t="n">
+        <v>300</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>30</v>
+      </c>
+      <c r="H22" t="n">
+        <v>55</v>
+      </c>
+      <c r="I22" t="n">
+        <v>45</v>
+      </c>
+      <c r="J22" t="n">
+        <v>8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>88</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>15</v>
+      </c>
+      <c r="O22" t="n">
+        <v>270</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="n">
+        <v>30</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>542981.2326</v>
+      </c>
+      <c r="U22" t="n">
+        <v>98625.81529120001</v>
+      </c>
+      <c r="V22" t="n">
+        <v>61299.6663996</v>
+      </c>
+      <c r="W22" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1350</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>4980</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>16</v>
+      </c>
+      <c r="C23" t="n">
+        <v>400</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>30</v>
+      </c>
+      <c r="H23" t="n">
+        <v>95</v>
+      </c>
+      <c r="I23" t="n">
+        <v>85</v>
+      </c>
+      <c r="J23" t="n">
+        <v>10</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>88</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>16</v>
+      </c>
+      <c r="O23" t="n">
+        <v>280</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>30</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>693706.0636539999</v>
+      </c>
+      <c r="U23" t="n">
+        <v>133610.0875624</v>
+      </c>
+      <c r="V23" t="n">
+        <v>83335.30754920001</v>
+      </c>
+      <c r="W23" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1910</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>5540</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/opm_hero_property/heroes/88.xlsx
+++ b/opm_hero_property/heroes/88.xlsx
@@ -6543,7 +6543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK23"/>
+  <dimension ref="A1:AS25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6737,6 +6737,46 @@
           <t>type_aura</t>
         </is>
       </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>基础战力</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>装备战力</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>天赋战力</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>研究所战力</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>职阶战力</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>机械核心战力</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>限制器战力</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>总战力</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6745,31 +6785,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2" t="n">
+        <v>400</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
-        <v>81</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -6781,106 +6821,130 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="O2" t="n">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>3,2,1,1,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>29635.962228</v>
+        <v>5493759.601052</v>
       </c>
       <c r="U2" t="n">
-        <v>5458.9799136</v>
+        <v>915466.9922952</v>
       </c>
       <c r="V2" t="n">
-        <v>1997.1396172</v>
+        <v>636059.5784164</v>
       </c>
       <c r="W2" t="n">
-        <v>1500</v>
+        <v>2300</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>1910</v>
       </c>
       <c r="Y2" t="n">
         <v>15000</v>
       </c>
       <c r="Z2" t="n">
-        <v>1200</v>
+        <v>2160</v>
       </c>
       <c r="AA2" t="n">
-        <v>2750</v>
+        <v>5540</v>
       </c>
       <c r="AB2" t="n">
-        <v>600</v>
+        <v>1080</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="AE2" t="n">
         <v>5000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
       </c>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="n">
+        <v>10745023.44237</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>2137285.43141318</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>2005624.4</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>15483205.92378318</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>pve</t>
+          <t>pvp</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>121</v>
+        <v>400</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -6892,73 +6956,97 @@
         <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="O3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3,2,2,2,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>41998.24660100001</v>
+        <v>693706.0636539999</v>
       </c>
       <c r="U3" t="n">
-        <v>7772.115488799999</v>
+        <v>133610.0875624</v>
       </c>
       <c r="V3" t="n">
-        <v>3008.22217</v>
+        <v>83335.30754920001</v>
       </c>
       <c r="W3" t="n">
-        <v>1500</v>
+        <v>2300</v>
       </c>
       <c r="X3" t="n">
-        <v>400</v>
+        <v>1910</v>
       </c>
       <c r="Y3" t="n">
         <v>15000</v>
       </c>
       <c r="Z3" t="n">
-        <v>1200</v>
+        <v>2160</v>
       </c>
       <c r="AA3" t="n">
-        <v>2750</v>
+        <v>5540</v>
       </c>
       <c r="AB3" t="n">
-        <v>600</v>
+        <v>1080</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="AE3" t="n">
         <v>5000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
       </c>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="n">
+        <v>1216940.38049</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>242401.80575246</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>467803.6</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>2110175.18624246</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -6967,16 +7055,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -6985,10 +7073,10 @@
         <v>-1</v>
       </c>
       <c r="H4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -7003,10 +7091,10 @@
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -7017,50 +7105,50 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,0,0,0,0</t>
+          <t>3,2,1,1,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>76898.90462</v>
+        <v>7192.9788</v>
       </c>
       <c r="U4" t="n">
-        <v>13582.0675</v>
+        <v>1645.7864</v>
       </c>
       <c r="V4" t="n">
-        <v>6225.06366</v>
+        <v>511.3302</v>
       </c>
       <c r="W4" t="n">
-        <v>1500</v>
+        <v>562</v>
       </c>
       <c r="X4" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="Y4" t="n">
         <v>15000</v>
       </c>
       <c r="Z4" t="n">
-        <v>1200</v>
+        <v>240</v>
       </c>
       <c r="AA4" t="n">
-        <v>2750</v>
+        <v>400</v>
       </c>
       <c r="AB4" t="n">
-        <v>600</v>
+        <v>120</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="AE4" t="n">
         <v>5000</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -7070,6 +7158,30 @@
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="n">
+        <v>18752.40361</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>4549.950000000001</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>23302.35361</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7078,16 +7190,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -7096,13 +7208,13 @@
         <v>-1</v>
       </c>
       <c r="H5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -7114,10 +7226,10 @@
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -7128,59 +7240,83 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,1,0,0,1</t>
+          <t>3,2,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>76898.90462</v>
+        <v>19071.8371</v>
       </c>
       <c r="U5" t="n">
-        <v>13582.0675</v>
+        <v>4133.736199999999</v>
       </c>
       <c r="V5" t="n">
-        <v>6225.06366</v>
+        <v>1530.845</v>
       </c>
       <c r="W5" t="n">
-        <v>1500</v>
+        <v>673</v>
       </c>
       <c r="X5" t="n">
-        <v>470</v>
+        <v>160</v>
       </c>
       <c r="Y5" t="n">
         <v>15000</v>
       </c>
       <c r="Z5" t="n">
-        <v>1200</v>
+        <v>480</v>
       </c>
       <c r="AA5" t="n">
-        <v>2820</v>
+        <v>800</v>
       </c>
       <c r="AB5" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="AE5" t="n">
         <v>5000</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="n">
+        <v>47291.07563</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>11988.35</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>59279.42563</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7204,16 +7340,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H6" t="n">
         <v>15</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -7235,39 +7371,39 @@
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>4,3,2,2,1,1,0,0,2</t>
+          <t>4,3,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>65755.64402000001</v>
+        <v>54384.202</v>
       </c>
       <c r="U6" t="n">
-        <v>12647.0425</v>
+        <v>10675.875</v>
       </c>
       <c r="V6" t="n">
-        <v>5588.527859999999</v>
+        <v>4816.309999999999</v>
       </c>
       <c r="W6" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="X6" t="n">
-        <v>470</v>
+        <v>300</v>
       </c>
       <c r="Y6" t="n">
         <v>15000</v>
       </c>
       <c r="Z6" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="AA6" t="n">
-        <v>2070</v>
+        <v>1500</v>
       </c>
       <c r="AB6" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -7282,16 +7418,40 @@
         <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="n">
+        <v>112066.922</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>32846</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>9640.6</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>160714.022</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7300,31 +7460,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>-1</v>
       </c>
       <c r="H7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -7336,10 +7496,10 @@
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -7350,59 +7510,83 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>5,3,3,3,0,2,1,0,0</t>
+          <t>4,3,2,2,0,1,0,0,1</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>281466.592178</v>
+        <v>54384.202</v>
       </c>
       <c r="U7" t="n">
-        <v>47086.077664</v>
+        <v>10675.875</v>
       </c>
       <c r="V7" t="n">
-        <v>26379.844084</v>
+        <v>4816.309999999999</v>
       </c>
       <c r="W7" t="n">
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="X7" t="n">
-        <v>930</v>
+        <v>370</v>
       </c>
       <c r="Y7" t="n">
         <v>15000</v>
       </c>
       <c r="Z7" t="n">
-        <v>2160</v>
+        <v>900</v>
       </c>
       <c r="AA7" t="n">
-        <v>4560</v>
+        <v>1570</v>
       </c>
       <c r="AB7" t="n">
-        <v>1080</v>
+        <v>450</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE7" t="n">
         <v>5000</v>
       </c>
       <c r="AF7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="n">
+        <v>112066.922</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>32846</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>9815.6</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>160889.022</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7411,31 +7595,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>15</v>
+      </c>
+      <c r="I8" t="n">
         <v>5</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>25</v>
-      </c>
-      <c r="I8" t="n">
-        <v>15</v>
-      </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -7447,10 +7631,10 @@
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -7461,59 +7645,83 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,2,1,0,1</t>
+          <t>4,3,2,2,1,1,0,0,2</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>231080.655038</v>
+        <v>54755.64402000001</v>
       </c>
       <c r="U8" t="n">
-        <v>43135.037344</v>
+        <v>10707.0425</v>
       </c>
       <c r="V8" t="n">
-        <v>23049.989164</v>
+        <v>4837.527859999999</v>
       </c>
       <c r="W8" t="n">
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="X8" t="n">
-        <v>930</v>
+        <v>370</v>
       </c>
       <c r="Y8" t="n">
         <v>15000</v>
       </c>
       <c r="Z8" t="n">
-        <v>2160</v>
+        <v>900</v>
       </c>
       <c r="AA8" t="n">
-        <v>3810</v>
+        <v>1570</v>
       </c>
       <c r="AB8" t="n">
-        <v>1080</v>
+        <v>450</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE8" t="n">
         <v>5000</v>
       </c>
       <c r="AF8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
       </c>
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="n">
+        <v>112066.922</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>32846</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>708.5004650000001</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>9815.6</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>161597.522465</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7537,7 +7745,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H9" t="n">
         <v>25</v>
@@ -7546,7 +7754,7 @@
         <v>15</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -7568,21 +7776,21 @@
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,1,0,5</t>
+          <t>5,3,3,3,0,2,1,0,0</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>247875.967418</v>
+        <v>228612.1238</v>
       </c>
       <c r="U9" t="n">
-        <v>44452.05078399999</v>
+        <v>43160.336</v>
       </c>
       <c r="V9" t="n">
-        <v>24159.940804</v>
+        <v>23065.994</v>
       </c>
       <c r="W9" t="n">
         <v>2300</v>
@@ -7597,7 +7805,7 @@
         <v>2160</v>
       </c>
       <c r="AA9" t="n">
-        <v>4060</v>
+        <v>3810</v>
       </c>
       <c r="AB9" t="n">
         <v>1080</v>
@@ -7618,13 +7826,37 @@
         <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="n">
+        <v>502333.3077</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>39618.60000000001</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>671341.9076999999</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7648,7 +7880,7 @@
         <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>25</v>
@@ -7657,7 +7889,7 @@
         <v>15</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -7679,21 +7911,21 @@
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,2,1,0,1</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>264671.279798</v>
+        <v>230291.655038</v>
       </c>
       <c r="U10" t="n">
-        <v>45769.06422399999</v>
+        <v>43292.037344</v>
       </c>
       <c r="V10" t="n">
-        <v>25269.892444</v>
+        <v>23176.989164</v>
       </c>
       <c r="W10" t="n">
         <v>2300</v>
@@ -7708,7 +7940,7 @@
         <v>2160</v>
       </c>
       <c r="AA10" t="n">
-        <v>4310</v>
+        <v>3810</v>
       </c>
       <c r="AB10" t="n">
         <v>1080</v>
@@ -7729,13 +7961,37 @@
         <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI10" t="n">
         <v>0</v>
       </c>
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="n">
+        <v>502333.3077</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3226.4927046</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>39618.60000000001</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>674568.4004046</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7759,7 +8015,7 @@
         <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
         <v>25</v>
@@ -7768,7 +8024,7 @@
         <v>15</v>
       </c>
       <c r="J11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -7790,21 +8046,21 @@
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,1,0,10</t>
+          <t>5,3,3,3,2,2,1,0,5</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>281466.592178</v>
+        <v>247086.967418</v>
       </c>
       <c r="U11" t="n">
-        <v>47086.077664</v>
+        <v>44609.05078399999</v>
       </c>
       <c r="V11" t="n">
-        <v>26379.844084</v>
+        <v>24286.940804</v>
       </c>
       <c r="W11" t="n">
         <v>2300</v>
@@ -7819,7 +8075,7 @@
         <v>2160</v>
       </c>
       <c r="AA11" t="n">
-        <v>4560</v>
+        <v>4060</v>
       </c>
       <c r="AB11" t="n">
         <v>1080</v>
@@ -7840,13 +8096,37 @@
         <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AI11" t="n">
         <v>0</v>
       </c>
       <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="n">
+        <v>502333.3077</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>35703.9197506</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>39618.60000000001</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>707045.8274505999</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7870,13 +8150,13 @@
         <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H12" t="n">
         <v>25</v>
       </c>
       <c r="I12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J12" t="n">
         <v>5</v>
@@ -7901,27 +8181,27 @@
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,0,0,5</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>281466.592178</v>
+        <v>263882.279798</v>
       </c>
       <c r="U12" t="n">
-        <v>47086.077664</v>
+        <v>45926.06422399999</v>
       </c>
       <c r="V12" t="n">
-        <v>26379.844084</v>
+        <v>25396.892444</v>
       </c>
       <c r="W12" t="n">
         <v>2300</v>
       </c>
       <c r="X12" t="n">
-        <v>860</v>
+        <v>930</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
@@ -7930,7 +8210,7 @@
         <v>2160</v>
       </c>
       <c r="AA12" t="n">
-        <v>4490</v>
+        <v>4310</v>
       </c>
       <c r="AB12" t="n">
         <v>1080</v>
@@ -7948,7 +8228,7 @@
         <v>25</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
         <v>5</v>
@@ -7958,6 +8238,30 @@
       </c>
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="n">
+        <v>502333.3077</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>68181.34679659999</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>39618.60000000001</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>739523.2544965999</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7966,10 +8270,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -7984,13 +8288,13 @@
         <v>30</v>
       </c>
       <c r="H13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8002,10 +8306,10 @@
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -8016,23 +8320,23 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,0,6</t>
+          <t>5,3,3,3,4,2,1,0,10</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>421413.811554</v>
+        <v>280677.592178</v>
       </c>
       <c r="U13" t="n">
-        <v>70201.5243504</v>
+        <v>47243.077664</v>
       </c>
       <c r="V13" t="n">
-        <v>44030.7747436</v>
+        <v>26506.844084</v>
       </c>
       <c r="W13" t="n">
         <v>2300</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>930</v>
       </c>
       <c r="Y13" t="n">
         <v>15000</v>
@@ -8041,7 +8345,7 @@
         <v>2160</v>
       </c>
       <c r="AA13" t="n">
-        <v>4630</v>
+        <v>4560</v>
       </c>
       <c r="AB13" t="n">
         <v>1080</v>
@@ -8050,25 +8354,49 @@
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE13" t="n">
         <v>5000</v>
       </c>
       <c r="AF13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
       </c>
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="n">
+        <v>502333.3077</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>100658.7738426</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>39618.60000000001</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>772000.6815425999</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8077,10 +8405,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8095,13 +8423,13 @@
         <v>30</v>
       </c>
       <c r="H14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8113,10 +8441,10 @@
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8127,23 +8455,23 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,4,2,0,0,5</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>421413.811554</v>
+        <v>280677.592178</v>
       </c>
       <c r="U14" t="n">
-        <v>70201.5243504</v>
+        <v>47243.077664</v>
       </c>
       <c r="V14" t="n">
-        <v>44030.7747436</v>
+        <v>26506.844084</v>
       </c>
       <c r="W14" t="n">
         <v>2300</v>
       </c>
       <c r="X14" t="n">
-        <v>1070</v>
+        <v>860</v>
       </c>
       <c r="Y14" t="n">
         <v>15000</v>
@@ -8152,7 +8480,7 @@
         <v>2160</v>
       </c>
       <c r="AA14" t="n">
-        <v>4700</v>
+        <v>4490</v>
       </c>
       <c r="AB14" t="n">
         <v>1080</v>
@@ -8161,25 +8489,49 @@
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE14" t="n">
         <v>5000</v>
       </c>
       <c r="AF14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
       </c>
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="n">
+        <v>502333.3077</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>100658.7738426</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>39443.60000000001</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>771825.6815425999</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8188,10 +8540,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8206,13 +8558,13 @@
         <v>30</v>
       </c>
       <c r="H15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="I15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -8224,10 +8576,10 @@
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -8238,23 +8590,23 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,4,2,2,0,6</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>1044803.479854</v>
+        <v>423913.811554</v>
       </c>
       <c r="U15" t="n">
-        <v>172196.3092576</v>
+        <v>71009.5243504</v>
       </c>
       <c r="V15" t="n">
-        <v>120696.4132</v>
+        <v>44804.7747436</v>
       </c>
       <c r="W15" t="n">
         <v>2300</v>
       </c>
       <c r="X15" t="n">
-        <v>1350</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
         <v>15000</v>
@@ -8263,7 +8615,7 @@
         <v>2160</v>
       </c>
       <c r="AA15" t="n">
-        <v>4980</v>
+        <v>4630</v>
       </c>
       <c r="AB15" t="n">
         <v>1080</v>
@@ -8272,25 +8624,49 @@
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="AE15" t="n">
         <v>5000</v>
       </c>
       <c r="AF15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AG15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
       </c>
       <c r="AJ15" t="inlineStr"/>
       <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="n">
+        <v>771018.58809</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>153980.34625746</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>112125.4</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>1184613.48434746</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -8299,10 +8675,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8317,13 +8693,13 @@
         <v>30</v>
       </c>
       <c r="H16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -8335,10 +8711,10 @@
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -8349,23 +8725,23 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>5358882.601052</v>
+        <v>423913.811554</v>
       </c>
       <c r="U16" t="n">
-        <v>891738.9922952</v>
+        <v>71009.5243504</v>
       </c>
       <c r="V16" t="n">
-        <v>614219.5784164</v>
+        <v>44804.7747436</v>
       </c>
       <c r="W16" t="n">
         <v>2300</v>
       </c>
       <c r="X16" t="n">
-        <v>1910</v>
+        <v>1070</v>
       </c>
       <c r="Y16" t="n">
         <v>15000</v>
@@ -8374,7 +8750,7 @@
         <v>2160</v>
       </c>
       <c r="AA16" t="n">
-        <v>5540</v>
+        <v>4700</v>
       </c>
       <c r="AB16" t="n">
         <v>1080</v>
@@ -8383,25 +8759,49 @@
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="AE16" t="n">
         <v>5000</v>
       </c>
       <c r="AF16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
         <v>0</v>
       </c>
       <c r="AJ16" t="inlineStr"/>
       <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="n">
+        <v>771018.58809</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>153980.34625746</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>112300.4</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>1184788.48434746</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -8410,10 +8810,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8428,13 +8828,13 @@
         <v>30</v>
       </c>
       <c r="H17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="I17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="J17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -8446,10 +8846,10 @@
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -8460,23 +8860,23 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,3,3,3,8</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>8774742.912766</v>
+        <v>1082298.479854</v>
       </c>
       <c r="U17" t="n">
-        <v>1458192.6689208</v>
+        <v>179053.3092576</v>
       </c>
       <c r="V17" t="n">
-        <v>997254.3706448</v>
+        <v>127329.4132</v>
       </c>
       <c r="W17" t="n">
         <v>2300</v>
       </c>
       <c r="X17" t="n">
-        <v>2820</v>
+        <v>1350</v>
       </c>
       <c r="Y17" t="n">
         <v>15000</v>
@@ -8485,7 +8885,7 @@
         <v>2160</v>
       </c>
       <c r="AA17" t="n">
-        <v>6450</v>
+        <v>4980</v>
       </c>
       <c r="AB17" t="n">
         <v>1080</v>
@@ -8494,58 +8894,82 @@
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AE17" t="n">
         <v>5000</v>
       </c>
       <c r="AF17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="AG17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AH17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI17" t="n">
         <v>0</v>
       </c>
       <c r="AJ17" t="inlineStr"/>
       <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="n">
+        <v>1760219.24596</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>350202.59367144</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>155697.55</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>683503.6000000001</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>3063891.93963144</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>161</v>
+        <v>400</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -8557,106 +8981,130 @@
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,1,0,0,1</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>217820.527905</v>
+        <v>5493759.601052</v>
       </c>
       <c r="U18" t="n">
-        <v>43879.487298</v>
+        <v>915466.9922952</v>
       </c>
       <c r="V18" t="n">
-        <v>21309.476396</v>
+        <v>636059.5784164</v>
       </c>
       <c r="W18" t="n">
-        <v>1500</v>
+        <v>2300</v>
       </c>
       <c r="X18" t="n">
-        <v>470</v>
+        <v>1910</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>1200</v>
+        <v>2160</v>
       </c>
       <c r="AA18" t="n">
-        <v>2070</v>
+        <v>5540</v>
       </c>
       <c r="AB18" t="n">
-        <v>600</v>
+        <v>1080</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="AE18" t="n">
         <v>5000</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="AH18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AI18" t="n">
         <v>0</v>
       </c>
       <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="n">
+        <v>10745023.44237</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>2137285.43141318</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>2005624.4</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>15483205.92378318</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B19" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" t="n">
+        <v>500</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
         <v>10</v>
-      </c>
-      <c r="C19" t="n">
-        <v>200</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9</v>
       </c>
       <c r="F19" t="n">
         <v>5</v>
       </c>
       <c r="G19" t="n">
+        <v>30</v>
+      </c>
+      <c r="H19" t="n">
+        <v>160</v>
+      </c>
+      <c r="I19" t="n">
+        <v>150</v>
+      </c>
+      <c r="J19" t="n">
         <v>10</v>
-      </c>
-      <c r="H19" t="n">
-        <v>20</v>
-      </c>
-      <c r="I19" t="n">
-        <v>10</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -8668,37 +9116,37 @@
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="O19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,0,0,2</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>302909.52793</v>
+        <v>9084460.912766</v>
       </c>
       <c r="U19" t="n">
-        <v>56285.4772336</v>
+        <v>1512225.6689208</v>
       </c>
       <c r="V19" t="n">
-        <v>30030.0521652</v>
+        <v>1046486.3706448</v>
       </c>
       <c r="W19" t="n">
         <v>2300</v>
       </c>
       <c r="X19" t="n">
-        <v>860</v>
+        <v>2820</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
@@ -8707,7 +9155,7 @@
         <v>2160</v>
       </c>
       <c r="AA19" t="n">
-        <v>3990</v>
+        <v>6450</v>
       </c>
       <c r="AB19" t="n">
         <v>1080</v>
@@ -8716,25 +9164,49 @@
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="AE19" t="n">
         <v>5000</v>
       </c>
       <c r="AF19" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="AG19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH19" t="n">
         <v>10</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>2</v>
       </c>
       <c r="AI19" t="n">
         <v>0</v>
       </c>
       <c r="AJ19" t="inlineStr"/>
       <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="n">
+        <v>17439348.16918</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3469447.64034712</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1061573.2</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>3469133.2</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>25553771.15952712</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -8743,31 +9215,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>15</v>
+      </c>
+      <c r="I20" t="n">
         <v>5</v>
       </c>
-      <c r="G20" t="n">
-        <v>20</v>
-      </c>
-      <c r="H20" t="n">
-        <v>25</v>
-      </c>
-      <c r="I20" t="n">
-        <v>15</v>
-      </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -8779,73 +9251,97 @@
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,1,0,0,1</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>398233.701322</v>
+        <v>206820.527905</v>
       </c>
       <c r="U20" t="n">
-        <v>69835.42633040001</v>
+        <v>41939.487298</v>
       </c>
       <c r="V20" t="n">
-        <v>42320.989268</v>
+        <v>20558.476396</v>
       </c>
       <c r="W20" t="n">
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="X20" t="n">
-        <v>930</v>
+        <v>370</v>
       </c>
       <c r="Y20" t="n">
         <v>15000</v>
       </c>
       <c r="Z20" t="n">
-        <v>2160</v>
+        <v>900</v>
       </c>
       <c r="AA20" t="n">
-        <v>4310</v>
+        <v>1570</v>
       </c>
       <c r="AB20" t="n">
-        <v>1080</v>
+        <v>450</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="AE20" t="n">
         <v>5000</v>
       </c>
       <c r="AF20" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI20" t="n">
         <v>0</v>
       </c>
       <c r="AJ20" t="inlineStr"/>
       <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="n">
+        <v>534795.5715500001</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>32846</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>3398.4579882</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>14696.9</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>33824.8</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>619561.7295382001</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8854,31 +9350,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="n">
         <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -8890,73 +9386,97 @@
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,2,2,0,0,2</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>469752.783633</v>
+        <v>279809.52793</v>
       </c>
       <c r="U21" t="n">
-        <v>81468.2816592</v>
+        <v>52211.4772336</v>
       </c>
       <c r="V21" t="n">
-        <v>50505.97263020001</v>
+        <v>28453.2521652</v>
       </c>
       <c r="W21" t="n">
-        <v>2300</v>
+        <v>1250</v>
       </c>
       <c r="X21" t="n">
-        <v>1070</v>
+        <v>590</v>
       </c>
       <c r="Y21" t="n">
         <v>15000</v>
       </c>
       <c r="Z21" t="n">
-        <v>2160</v>
+        <v>1350</v>
       </c>
       <c r="AA21" t="n">
-        <v>4700</v>
+        <v>2640</v>
       </c>
       <c r="AB21" t="n">
-        <v>1080</v>
+        <v>675</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AE21" t="n">
         <v>5000</v>
       </c>
       <c r="AF21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AG21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AH21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AI21" t="n">
         <v>0</v>
       </c>
       <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="n">
+        <v>630814.87251</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>49269</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>44522.09828174001</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>19028.1</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>67649.60000000001</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>811283.6707917401</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -8965,10 +9485,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C22" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -8980,16 +9500,16 @@
         <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="J22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -9001,37 +9521,37 @@
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>542981.2326</v>
+        <v>398233.701322</v>
       </c>
       <c r="U22" t="n">
-        <v>98625.81529120001</v>
+        <v>69835.42633040001</v>
       </c>
       <c r="V22" t="n">
-        <v>61299.6663996</v>
+        <v>42320.989268</v>
       </c>
       <c r="W22" t="n">
         <v>2300</v>
       </c>
       <c r="X22" t="n">
-        <v>1350</v>
+        <v>930</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
@@ -9040,7 +9560,7 @@
         <v>2160</v>
       </c>
       <c r="AA22" t="n">
-        <v>4980</v>
+        <v>4310</v>
       </c>
       <c r="AB22" t="n">
         <v>1080</v>
@@ -9049,25 +9569,49 @@
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AE22" t="n">
         <v>5000</v>
       </c>
       <c r="AF22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AG22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="AH22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AI22" t="n">
         <v>0</v>
       </c>
       <c r="AJ22" t="inlineStr"/>
       <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="n">
+        <v>793631.11884</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>107361.66245276</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>23382.7</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>97518.39999999999</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1136162.83129276</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9076,10 +9620,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C23" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -9094,13 +9638,13 @@
         <v>30</v>
       </c>
       <c r="H23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9112,10 +9656,10 @@
         <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9126,23 +9670,23 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>693706.0636539999</v>
+        <v>469752.783633</v>
       </c>
       <c r="U23" t="n">
-        <v>133610.0875624</v>
+        <v>81468.2816592</v>
       </c>
       <c r="V23" t="n">
-        <v>83335.30754920001</v>
+        <v>50505.97263020001</v>
       </c>
       <c r="W23" t="n">
         <v>2300</v>
       </c>
       <c r="X23" t="n">
-        <v>1910</v>
+        <v>1070</v>
       </c>
       <c r="Y23" t="n">
         <v>15000</v>
@@ -9151,7 +9695,7 @@
         <v>2160</v>
       </c>
       <c r="AA23" t="n">
-        <v>5540</v>
+        <v>4700</v>
       </c>
       <c r="AB23" t="n">
         <v>1080</v>
@@ -9160,25 +9704,319 @@
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="AE23" t="n">
         <v>5000</v>
       </c>
       <c r="AF23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI23" t="n">
         <v>0</v>
       </c>
       <c r="AJ23" t="inlineStr"/>
       <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="n">
+        <v>865655.1698449999</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>172760.99986013</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>30363.65</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>152526</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1335574.76970513</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>15</v>
+      </c>
+      <c r="C24" t="n">
+        <v>300</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>30</v>
+      </c>
+      <c r="H24" t="n">
+        <v>55</v>
+      </c>
+      <c r="I24" t="n">
+        <v>45</v>
+      </c>
+      <c r="J24" t="n">
+        <v>8</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>88</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>15</v>
+      </c>
+      <c r="O24" t="n">
+        <v>270</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="n">
+        <v>30</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>542981.2326</v>
+      </c>
+      <c r="U24" t="n">
+        <v>98625.81529120001</v>
+      </c>
+      <c r="V24" t="n">
+        <v>61299.6663996</v>
+      </c>
+      <c r="W24" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1350</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>4980</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="n">
+        <v>979560.4601700001</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>195330.27973698</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>43173.05</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>257621.2</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1589953.93990698</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>16</v>
+      </c>
+      <c r="C25" t="n">
+        <v>400</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" t="n">
+        <v>30</v>
+      </c>
+      <c r="H25" t="n">
+        <v>95</v>
+      </c>
+      <c r="I25" t="n">
+        <v>85</v>
+      </c>
+      <c r="J25" t="n">
+        <v>10</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>88</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>16</v>
+      </c>
+      <c r="O25" t="n">
+        <v>280</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="n">
+        <v>30</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>693706.0636539999</v>
+      </c>
+      <c r="U25" t="n">
+        <v>133610.0875624</v>
+      </c>
+      <c r="V25" t="n">
+        <v>83335.30754920001</v>
+      </c>
+      <c r="W25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1910</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>5540</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="n">
+        <v>1216940.38049</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>242401.80575246</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>467803.6</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>2110175.18624246</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/opm_hero_property/heroes/88.xlsx
+++ b/opm_hero_property/heroes/88.xlsx
@@ -997,87 +997,87 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,43247;31,8204;41,2728</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,129742;31,0;41,0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,12306;41,0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,5200;31,992;41,366</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,15601;31,0;41,0</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,1488;41,0</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>43247.36500000001</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>8204.280000000001</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>2728.6216</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>129742.095</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>12306.42</v>
       </c>
       <c r="V2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>5200.51</v>
       </c>
       <c r="X2" t="n">
-        <v>1</v>
+        <v>992.4600000000002</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>366.0312</v>
       </c>
       <c r="Z2" t="n">
-        <v>1</v>
+        <v>15601.53</v>
       </c>
       <c r="AA2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>1</v>
+        <v>1488.69</v>
       </c>
       <c r="AE2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1104,87 +1104,87 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,43251;31,8205;41,2728</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,129754;31,0;41,0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,12308;41,0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,5204;31,993;41,366</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,15613;31,0;41,0</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,1490;41,0</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>43251.425</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>8205.575000000001</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>2728.9706</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>129754.275</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>12308.3625</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>5204.570000000001</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>993.7550000000001</v>
       </c>
       <c r="Y3" t="n">
-        <v>1</v>
+        <v>366.3802</v>
       </c>
       <c r="Z3" t="n">
-        <v>1</v>
+        <v>15613.71</v>
       </c>
       <c r="AA3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>1490.6325</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1211,87 +1211,87 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,45954;31,9151;41,3049</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,137864;31,0;41,0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,13726;41,0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,5495;31,1095;41,401</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,16487;31,0;41,0</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,1643;41,0</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>45954.912318</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>9151.148335</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>3049.31268138</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>137864.736954</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>13726.7225025</v>
       </c>
       <c r="V4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>1</v>
+        <v>5495.886711000001</v>
       </c>
       <c r="X4" t="n">
-        <v>1</v>
+        <v>1095.545395</v>
       </c>
       <c r="Y4" t="n">
-        <v>1</v>
+        <v>401.79387914</v>
       </c>
       <c r="Z4" t="n">
-        <v>1</v>
+        <v>16487.660133</v>
       </c>
       <c r="AA4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>1</v>
+        <v>1643.3180925</v>
       </c>
       <c r="AE4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1318,87 +1318,87 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,49016;31,10222;41,3412</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,147048;31,0;41,0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,15333;41,0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,5825;31,1210;41,441</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,17475;31,0;41,0</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,1816;41,0</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>49016.092104</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>10222.625448</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>3412.63890802</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>147048.276312</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>15333.938172</v>
       </c>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>5825.302308</v>
       </c>
       <c r="X5" t="n">
-        <v>1</v>
+        <v>1210.735176</v>
       </c>
       <c r="Y5" t="n">
-        <v>1</v>
+        <v>441.91773906</v>
       </c>
       <c r="Z5" t="n">
-        <v>1</v>
+        <v>17475.906924</v>
       </c>
       <c r="AA5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>1816.102764</v>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1425,87 +1425,87 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>21,52618;31,11483;41,3850</t>
+          <t>21,52618;31,11483;41,3839</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>21,52618;31,11483;41,3850</t>
+          <t>21,157855;31,0;41,0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>21,26309;31,5741;41,1925</t>
+          <t>21,0;31,17224;41,0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>21,6212;31,1346;41,490</t>
+          <t>21,6212;31,1346;41,489</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>21,6212;31,1346;41,490</t>
+          <t>21,18638;31,0;41,0</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>21,3106;31,673;41,245</t>
+          <t>21,0;31,2019;41,0</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>52618</v>
+        <v>52618.435919</v>
       </c>
       <c r="O6" t="n">
-        <v>11483</v>
+        <v>11483.098228</v>
       </c>
       <c r="P6" t="n">
-        <v>3850</v>
+        <v>3839.68024986</v>
       </c>
       <c r="Q6" t="n">
-        <v>52618</v>
+        <v>157855.307757</v>
       </c>
       <c r="R6" t="n">
-        <v>11483</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>3850</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>26309</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>5741</v>
+        <v>17224.647342</v>
       </c>
       <c r="V6" t="n">
-        <v>1925</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>6212</v>
+        <v>6212.6868755</v>
       </c>
       <c r="X6" t="n">
-        <v>1346</v>
+        <v>1346.164036</v>
       </c>
       <c r="Y6" t="n">
-        <v>490</v>
+        <v>489.05454458</v>
       </c>
       <c r="Z6" t="n">
-        <v>6212</v>
+        <v>18638.0606265</v>
       </c>
       <c r="AA6" t="n">
-        <v>1346</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>490</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>3106</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>673</v>
+        <v>2019.246054</v>
       </c>
       <c r="AE6" t="n">
-        <v>245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1532,87 +1532,87 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>21,58453;31,12933;41,4745</t>
+          <t>21,58453;31,12933;41,4732</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>21,58453;31,12933;41,4745</t>
+          <t>21,175360;31,0;41,0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>21,29226;31,6466;41,2372</t>
+          <t>21,0;31,19400;41,0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>21,6846;31,1503;41,589</t>
+          <t>21,6846;31,1503;41,588</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>21,6846;31,1503;41,589</t>
+          <t>21,20540;31,0;41,0</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>21,3423;31,751;41,294</t>
+          <t>21,0;31,2255;41,0</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>58453</v>
+        <v>58453.44542800001</v>
       </c>
       <c r="O7" t="n">
-        <v>12933</v>
+        <v>12933.7545995</v>
       </c>
       <c r="P7" t="n">
-        <v>4745</v>
+        <v>4732.2430942</v>
       </c>
       <c r="Q7" t="n">
-        <v>58453</v>
+        <v>175360.336284</v>
       </c>
       <c r="R7" t="n">
-        <v>12933</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>4745</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>29226</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>6466</v>
+        <v>19400.63189925</v>
       </c>
       <c r="V7" t="n">
-        <v>2372</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>6846</v>
+        <v>6846.691306000001</v>
       </c>
       <c r="X7" t="n">
-        <v>1503</v>
+        <v>1503.7410815</v>
       </c>
       <c r="Y7" t="n">
-        <v>589</v>
+        <v>588.2595326000001</v>
       </c>
       <c r="Z7" t="n">
-        <v>6846</v>
+        <v>20540.073918</v>
       </c>
       <c r="AA7" t="n">
-        <v>1503</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>589</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>3423</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>751</v>
+        <v>2255.61162225</v>
       </c>
       <c r="AE7" t="n">
-        <v>294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1639,87 +1639,87 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>21,66000;31,14573;41,5983</t>
+          <t>21,66000;31,14573;41,5966</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>21,66000;31,14573;41,5983</t>
+          <t>21,198001;31,0;41,0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>21,33000;31,7286;41,2991</t>
+          <t>21,0;31,21860;41,0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>21,7663;31,1680;41,727</t>
+          <t>21,7663;31,1680;41,725</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>21,7663;31,1680;41,727</t>
+          <t>21,22989;31,0;41,0</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>21,3831;31,840;41,363</t>
+          <t>21,0;31,2521;41,0</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>66000</v>
+        <v>66000.55639100001</v>
       </c>
       <c r="O8" t="n">
-        <v>14573</v>
+        <v>14573.4787135</v>
       </c>
       <c r="P8" t="n">
-        <v>5983</v>
+        <v>5966.50049255</v>
       </c>
       <c r="Q8" t="n">
-        <v>66000</v>
+        <v>198001.669173</v>
       </c>
       <c r="R8" t="n">
-        <v>14573</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>5983</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>33000</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>7286</v>
+        <v>21860.21807025</v>
       </c>
       <c r="V8" t="n">
-        <v>2991</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>7663</v>
+        <v>7663.313619500002</v>
       </c>
       <c r="X8" t="n">
-        <v>1680</v>
+        <v>1680.9080995</v>
       </c>
       <c r="Y8" t="n">
-        <v>727</v>
+        <v>725.0936901499999</v>
       </c>
       <c r="Z8" t="n">
-        <v>7663</v>
+        <v>22989.9408585</v>
       </c>
       <c r="AA8" t="n">
-        <v>1680</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>727</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>3831</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>840</v>
+        <v>2521.36214925</v>
       </c>
       <c r="AE8" t="n">
-        <v>363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1746,87 +1746,87 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>21,75706;31,16464;41,7649</t>
+          <t>21,75706;31,16464;41,7627</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>21,75706;31,16464;41,7649</t>
+          <t>21,227118;31,0;41,0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>21,37853;31,8232;41,3824</t>
+          <t>21,0;31,24696;41,0</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>21,8709;31,1884;41,911</t>
+          <t>21,8709;31,1884;41,908</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>21,8709;31,1884;41,911</t>
+          <t>21,26128;31,0;41,0</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>21,4354;31,942;41,455</t>
+          <t>21,0;31,2826;41,0</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>75706</v>
+        <v>75706.17564300001</v>
       </c>
       <c r="O9" t="n">
-        <v>16464</v>
+        <v>16464.3803835</v>
       </c>
       <c r="P9" t="n">
-        <v>7649</v>
+        <v>7627.554932739999</v>
       </c>
       <c r="Q9" t="n">
-        <v>75706</v>
+        <v>227118.526929</v>
       </c>
       <c r="R9" t="n">
-        <v>16464</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>7649</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>37853</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>8232</v>
+        <v>24696.57057525</v>
       </c>
       <c r="V9" t="n">
-        <v>3824</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>8709</v>
+        <v>8709.468673500001</v>
       </c>
       <c r="X9" t="n">
-        <v>1884</v>
+        <v>1884.2438895</v>
       </c>
       <c r="Y9" t="n">
-        <v>911</v>
+        <v>908.8203532200001</v>
       </c>
       <c r="Z9" t="n">
-        <v>8709</v>
+        <v>26128.4060205</v>
       </c>
       <c r="AA9" t="n">
-        <v>1884</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>911</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>4354</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>942</v>
+        <v>2826.36583425</v>
       </c>
       <c r="AE9" t="n">
-        <v>455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1853,87 +1853,87 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>21,82981;31,17472;41,9036</t>
+          <t>21,82981;31,17472;41,9010</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>21,82981;31,17472;41,9036</t>
+          <t>21,248943;31,0;41,0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>21,41490;31,8736;41,4518</t>
+          <t>21,0;31,26209;41,0</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>21,9493;31,1992;41,1064</t>
+          <t>21,9493;31,1992;41,1061</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>21,9493;31,1992;41,1064</t>
+          <t>21,28480;31,0;41,0</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>21,4746;31,996;41,532</t>
+          <t>21,0;31,2988;41,0</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>82981</v>
+        <v>82981.123505</v>
       </c>
       <c r="O10" t="n">
-        <v>17472</v>
+        <v>17472.8006075</v>
       </c>
       <c r="P10" t="n">
-        <v>9036</v>
+        <v>9010.755668350001</v>
       </c>
       <c r="Q10" t="n">
-        <v>82981</v>
+        <v>248943.370515</v>
       </c>
       <c r="R10" t="n">
-        <v>17472</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>9036</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>41490</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>8736</v>
+        <v>26209.20091125</v>
       </c>
       <c r="V10" t="n">
-        <v>4518</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>9493</v>
+        <v>9493.6230725</v>
       </c>
       <c r="X10" t="n">
-        <v>1992</v>
+        <v>1992.6289775</v>
       </c>
       <c r="Y10" t="n">
-        <v>1064</v>
+        <v>1061.82026755</v>
       </c>
       <c r="Z10" t="n">
-        <v>9493</v>
+        <v>28480.8692175</v>
       </c>
       <c r="AA10" t="n">
-        <v>1992</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>1064</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>4746</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>996</v>
+        <v>2988.94346625</v>
       </c>
       <c r="AE10" t="n">
-        <v>532</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1960,87 +1960,87 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>21,91849;31,18669;41,10739</t>
+          <t>21,91849;31,18669;41,10709</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>21,91849;31,18669;41,10739</t>
+          <t>21,275548;31,0;41,0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>21,45924;31,9334;41,5369</t>
+          <t>21,0;31,28003;41,0</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>21,10448;31,2121;41,1253</t>
+          <t>21,10448;31,2121;41,1249</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>21,10448;31,2121;41,1253</t>
+          <t>21,31344;31,0;41,0</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>21,5224;31,1060;41,626</t>
+          <t>21,0;31,3181;41,0</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>91849</v>
+        <v>91849.40866500001</v>
       </c>
       <c r="O11" t="n">
-        <v>18669</v>
+        <v>18669.269423</v>
       </c>
       <c r="P11" t="n">
-        <v>10739</v>
+        <v>10709.04773497</v>
       </c>
       <c r="Q11" t="n">
-        <v>91849</v>
+        <v>275548.225995</v>
       </c>
       <c r="R11" t="n">
-        <v>18669</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>10739</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>45924</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>9334</v>
+        <v>28003.9041345</v>
       </c>
       <c r="V11" t="n">
-        <v>5369</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>10448</v>
+        <v>10448.1623925</v>
       </c>
       <c r="X11" t="n">
-        <v>2121</v>
+        <v>2121.027251</v>
       </c>
       <c r="Y11" t="n">
-        <v>1253</v>
+        <v>1249.47203241</v>
       </c>
       <c r="Z11" t="n">
-        <v>10448</v>
+        <v>31344.4871775</v>
       </c>
       <c r="AA11" t="n">
-        <v>2121</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>1253</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>5224</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>1060</v>
+        <v>3181.5408765</v>
       </c>
       <c r="AE11" t="n">
-        <v>626</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2067,87 +2067,87 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>21,108193;31,21189;41,13770</t>
+          <t>21,108193;31,21189;41,13731</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>21,108193;31,21189;41,13770</t>
+          <t>21,324579;31,0;41,0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>21,54096;31,10594;41,6885</t>
+          <t>21,0;31,31784;41,0</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>21,12204;31,2391;41,1587</t>
+          <t>21,12204;31,2391;41,1583</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>21,12204;31,2391;41,1587</t>
+          <t>21,36614;31,0;41,0</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>21,6102;31,1195;41,793</t>
+          <t>21,0;31,3587;41,0</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>108193</v>
+        <v>108193.307383</v>
       </c>
       <c r="O12" t="n">
-        <v>21189</v>
+        <v>21189.724983</v>
       </c>
       <c r="P12" t="n">
-        <v>13770</v>
+        <v>13731.5388066</v>
       </c>
       <c r="Q12" t="n">
-        <v>108193</v>
+        <v>324579.922149</v>
       </c>
       <c r="R12" t="n">
-        <v>21189</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>13770</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>54096</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>10594</v>
+        <v>31784.5874745</v>
       </c>
       <c r="V12" t="n">
-        <v>6885</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>12204</v>
+        <v>12204.8969035</v>
       </c>
       <c r="X12" t="n">
-        <v>2391</v>
+        <v>2391.394971000001</v>
       </c>
       <c r="Y12" t="n">
-        <v>1587</v>
+        <v>1583.0989698</v>
       </c>
       <c r="Z12" t="n">
-        <v>12204</v>
+        <v>36614.6907105</v>
       </c>
       <c r="AA12" t="n">
-        <v>2391</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>1587</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>6102</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>1195</v>
+        <v>3587.0924565</v>
       </c>
       <c r="AE12" t="n">
-        <v>793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2174,87 +2174,87 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>21,110722;31,21695;41,14200</t>
+          <t>21,110722;31,21695;41,14159</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>21,110722;31,21695;41,14200</t>
+          <t>21,332167;31,0;41,0</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>21,55361;31,10847;41,7100</t>
+          <t>21,0;31,32543;41,0</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>21,12485;31,2447;41,1636</t>
+          <t>21,12485;31,2447;41,1631</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>21,12485;31,2447;41,1636</t>
+          <t>21,37456;31,0;41,0</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>21,6242;31,1223;41,818</t>
+          <t>21,0;31,3671;41,0</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>110722</v>
+        <v>110722.63314</v>
       </c>
       <c r="O13" t="n">
-        <v>21695</v>
+        <v>21695.720095</v>
       </c>
       <c r="P13" t="n">
-        <v>14200</v>
+        <v>14159.76674844</v>
       </c>
       <c r="Q13" t="n">
-        <v>110722</v>
+        <v>332167.89942</v>
       </c>
       <c r="R13" t="n">
-        <v>21695</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>14200</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>55361</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>10847</v>
+        <v>32543.5801425</v>
       </c>
       <c r="V13" t="n">
-        <v>7100</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>12485</v>
+        <v>12485.65353</v>
       </c>
       <c r="X13" t="n">
-        <v>2447</v>
+        <v>2447.372515</v>
       </c>
       <c r="Y13" t="n">
-        <v>1636</v>
+        <v>1631.42237532</v>
       </c>
       <c r="Z13" t="n">
-        <v>12485</v>
+        <v>37456.96059</v>
       </c>
       <c r="AA13" t="n">
-        <v>2447</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>1636</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>6242</v>
+        <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>1223</v>
+        <v>3671.0587725</v>
       </c>
       <c r="AE13" t="n">
-        <v>818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2281,87 +2281,87 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>21,113251;31,22201;41,14630</t>
+          <t>21,113251;31,22201;41,14588</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>21,113251;31,22201;41,14630</t>
+          <t>21,339755;31,0;41,0</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>21,56625;31,11100;41,7315</t>
+          <t>21,0;31,33302;41,0</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>21,12766;31,2503;41,1684</t>
+          <t>21,12766;31,2503;41,1679</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>21,12766;31,2503;41,1684</t>
+          <t>21,38299;31,0;41,0</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>21,6383;31,1251;41,842</t>
+          <t>21,0;31,3754;41,0</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>113251</v>
+        <v>113251.958897</v>
       </c>
       <c r="O14" t="n">
-        <v>22201</v>
+        <v>22201.680207</v>
       </c>
       <c r="P14" t="n">
-        <v>14630</v>
+        <v>14588.29492451</v>
       </c>
       <c r="Q14" t="n">
-        <v>113251</v>
+        <v>339755.876691</v>
       </c>
       <c r="R14" t="n">
-        <v>22201</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>14630</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>56625</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>11100</v>
+        <v>33302.5203105</v>
       </c>
       <c r="V14" t="n">
-        <v>7315</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>12766</v>
+        <v>12766.4101565</v>
       </c>
       <c r="X14" t="n">
-        <v>2503</v>
+        <v>2503.315059</v>
       </c>
       <c r="Y14" t="n">
-        <v>1684</v>
+        <v>1679.80975603</v>
       </c>
       <c r="Z14" t="n">
-        <v>12766</v>
+        <v>38299.2304695</v>
       </c>
       <c r="AA14" t="n">
-        <v>2503</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>1684</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>6383</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>1251</v>
+        <v>3754.9725885</v>
       </c>
       <c r="AE14" t="n">
-        <v>842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2388,87 +2388,87 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>21,115785;31,22707;41,15059</t>
+          <t>21,115785;31,22707;41,15016</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>21,115785;31,22707;41,15059</t>
+          <t>21,347356;31,0;41,0</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>21,57892;31,11353;41,7529</t>
+          <t>21,0;31,34061;41,0</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>21,13047;31,2559;41,1733</t>
+          <t>21,13047;31,2559;41,1728</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>21,13047;31,2559;41,1733</t>
+          <t>21,39142;31,0;41,0</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>21,6523;31,1279;41,866</t>
+          <t>21,0;31,3838;41,0</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>115785</v>
+        <v>115785.542481</v>
       </c>
       <c r="O15" t="n">
-        <v>22707</v>
+        <v>22707.675319</v>
       </c>
       <c r="P15" t="n">
-        <v>15059</v>
+        <v>15016.55776635</v>
       </c>
       <c r="Q15" t="n">
-        <v>115785</v>
+        <v>347356.627443</v>
       </c>
       <c r="R15" t="n">
-        <v>22707</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>15059</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>57892</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>11353</v>
+        <v>34061.5129785</v>
       </c>
       <c r="V15" t="n">
-        <v>7529</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>13047</v>
+        <v>13047.6199245</v>
       </c>
       <c r="X15" t="n">
-        <v>2559</v>
+        <v>2559.292603</v>
       </c>
       <c r="Y15" t="n">
-        <v>1733</v>
+        <v>1728.16806155</v>
       </c>
       <c r="Z15" t="n">
-        <v>13047</v>
+        <v>39142.8597735</v>
       </c>
       <c r="AA15" t="n">
-        <v>2559</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>1733</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>6523</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>1279</v>
+        <v>3838.9389045</v>
       </c>
       <c r="AE15" t="n">
-        <v>866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2495,87 +2495,87 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>21,118314;31,23213;41,15489</t>
+          <t>21,118314;31,23213;41,15445</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>21,118314;31,23213;41,15489</t>
+          <t>21,354944;31,0;41,0</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>21,59157;31,11606;41,7744</t>
+          <t>21,0;31,34820;41,0</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>21,13328;31,2615;41,1781</t>
+          <t>21,13328;31,2615;41,1776</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>21,13328;31,2615;41,1781</t>
+          <t>21,39985;31,0;41,0</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>21,6664;31,1307;41,890</t>
+          <t>21,0;31,3922;41,0</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>118314</v>
+        <v>118314.833238</v>
       </c>
       <c r="O16" t="n">
-        <v>23213</v>
+        <v>23213.670431</v>
       </c>
       <c r="P16" t="n">
-        <v>15489</v>
+        <v>15445.08594242</v>
       </c>
       <c r="Q16" t="n">
-        <v>118314</v>
+        <v>354944.499714</v>
       </c>
       <c r="R16" t="n">
-        <v>23213</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>15489</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>59157</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>11606</v>
+        <v>34820.5056465</v>
       </c>
       <c r="V16" t="n">
-        <v>7744</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>13328</v>
+        <v>13328.341551</v>
       </c>
       <c r="X16" t="n">
-        <v>2615</v>
+        <v>2615.270147</v>
       </c>
       <c r="Y16" t="n">
-        <v>1781</v>
+        <v>1776.55544226</v>
       </c>
       <c r="Z16" t="n">
-        <v>13328</v>
+        <v>39985.024653</v>
       </c>
       <c r="AA16" t="n">
-        <v>2615</v>
+        <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>1781</v>
+        <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>6664</v>
+        <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>1307</v>
+        <v>3922.9052205</v>
       </c>
       <c r="AE16" t="n">
-        <v>890</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2602,87 +2602,87 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>21,120848;31,23719;41,15918</t>
+          <t>21,120848;31,23719;41,15873</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>21,120848;31,23719;41,15918</t>
+          <t>21,362545;31,0;41,0</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>21,60424;31,11859;41,7959</t>
+          <t>21,0;31,35579;41,0</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>21,13609;31,2671;41,1830</t>
+          <t>21,13609;31,2671;41,1824</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>21,13609;31,2671;41,1830</t>
+          <t>21,40828;31,0;41,0</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>21,6804;31,1335;41,915</t>
+          <t>21,0;31,4006;41,0</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>120848</v>
+        <v>120848.416822</v>
       </c>
       <c r="O17" t="n">
-        <v>23719</v>
+        <v>23719.630543</v>
       </c>
       <c r="P17" t="n">
-        <v>15918</v>
+        <v>15873.31388426</v>
       </c>
       <c r="Q17" t="n">
-        <v>120848</v>
+        <v>362545.250466</v>
       </c>
       <c r="R17" t="n">
-        <v>23719</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>15918</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>60424</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>11859</v>
+        <v>35579.4458145</v>
       </c>
       <c r="V17" t="n">
-        <v>7959</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>13609</v>
+        <v>13609.551319</v>
       </c>
       <c r="X17" t="n">
-        <v>2671</v>
+        <v>2671.212691</v>
       </c>
       <c r="Y17" t="n">
-        <v>1830</v>
+        <v>1824.87884778</v>
       </c>
       <c r="Z17" t="n">
-        <v>13609</v>
+        <v>40828.65395699999</v>
       </c>
       <c r="AA17" t="n">
-        <v>2671</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>1830</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>6804</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>1335</v>
+        <v>4006.8190365</v>
       </c>
       <c r="AE17" t="n">
-        <v>915</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5107,13 +5107,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7167</v>
+        <v>6767</v>
       </c>
       <c r="C2" t="n">
-        <v>1518</v>
+        <v>1328</v>
       </c>
       <c r="D2" t="n">
-        <v>681</v>
+        <v>891</v>
       </c>
       <c r="E2" t="n">
         <v>40</v>
@@ -5122,52 +5122,52 @@
         <v>40</v>
       </c>
       <c r="G2" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2" t="n">
-        <v>7167</v>
+        <v>21025</v>
       </c>
       <c r="I2" t="n">
-        <v>1518</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>681</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="L2" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3583</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>759</v>
+        <v>1718</v>
       </c>
       <c r="P2" t="n">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="S2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>5003</v>
+        <v>3509</v>
       </c>
       <c r="U2" t="n">
-        <v>874</v>
+        <v>735</v>
       </c>
       <c r="V2" t="n">
-        <v>727</v>
+        <v>364</v>
       </c>
       <c r="W2" t="n">
         <v>35</v>
@@ -5176,72 +5176,72 @@
         <v>35</v>
       </c>
       <c r="Y2" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z2" t="n">
-        <v>5003</v>
+        <v>10903</v>
       </c>
       <c r="AA2" t="n">
-        <v>874</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>727</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="AD2" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>2501</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>437</v>
+        <v>950</v>
       </c>
       <c r="AH2" t="n">
-        <v>363</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AK2" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>21,7167;31,1518;41,681;22,40;32,40;42,40</t>
+          <t>21,6767;31,1328;41,891;22,40;32,40;42,39</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>21,7167;31,1518;41,681;22,40;32,40;42,40</t>
+          <t>21,21025;31,0;41,0;22,120;32,0;42,0</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>21,3583;31,759;41,340;22,20;32,20;42,20</t>
+          <t>21,0;31,1718;41,0;22,0;32,60;42,0</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>21,5003;31,874;41,727;22,35;32,35;42,35</t>
+          <t>21,3509;31,735;41,364;22,35;32,35;42,34</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>21,5003;31,874;41,727;22,35;32,35;42,35</t>
+          <t>21,10903;31,0;41,0;22,105;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>21,2501;31,437;41,363;22,17;32,17;42,17</t>
+          <t>21,0;31,950;41,0;22,0;32,51;42,0</t>
         </is>
       </c>
     </row>
@@ -5250,13 +5250,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>14377</v>
+        <v>13535</v>
       </c>
       <c r="C3" t="n">
-        <v>2922</v>
+        <v>2656</v>
       </c>
       <c r="D3" t="n">
-        <v>1448</v>
+        <v>1782</v>
       </c>
       <c r="E3" t="n">
         <v>80</v>
@@ -5265,52 +5265,52 @@
         <v>80</v>
       </c>
       <c r="G3" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H3" t="n">
-        <v>14377</v>
+        <v>42050</v>
       </c>
       <c r="I3" t="n">
-        <v>2922</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1448</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="L3" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>7188</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1461</v>
+        <v>3436</v>
       </c>
       <c r="P3" t="n">
-        <v>724</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="S3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>5241</v>
+        <v>4029</v>
       </c>
       <c r="U3" t="n">
-        <v>915</v>
+        <v>817</v>
       </c>
       <c r="V3" t="n">
-        <v>768</v>
+        <v>449</v>
       </c>
       <c r="W3" t="n">
         <v>70</v>
@@ -5319,72 +5319,72 @@
         <v>70</v>
       </c>
       <c r="Y3" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z3" t="n">
-        <v>5241</v>
+        <v>12518</v>
       </c>
       <c r="AA3" t="n">
-        <v>915</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>768</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="AD3" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>2620</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>457</v>
+        <v>1057</v>
       </c>
       <c r="AH3" t="n">
-        <v>384</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="AK3" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>21,14377;31,2922;41,1448;22,80;32,80;42,80</t>
+          <t>21,13535;31,2656;41,1782;22,80;32,80;42,79</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>21,14377;31,2922;41,1448;22,80;32,80;42,80</t>
+          <t>21,42050;31,0;41,0;22,240;32,0;42,0</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>21,7188;31,1461;41,724;22,40;32,40;42,40</t>
+          <t>21,0;31,3436;41,0;22,0;32,120;42,0</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>21,5241;31,915;41,768;22,70;32,70;42,70</t>
+          <t>21,4029;31,817;41,449;22,70;32,70;42,69</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>21,5241;31,915;41,768;22,70;32,70;42,70</t>
+          <t>21,12518;31,0;41,0;22,210;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>21,2620;31,457;41,384;22,35;32,35;42,35</t>
+          <t>21,0;31,1057;41,0;22,0;32,105;42,0</t>
         </is>
       </c>
     </row>
@@ -5393,13 +5393,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>21376</v>
+        <v>20302</v>
       </c>
       <c r="C4" t="n">
-        <v>4194</v>
+        <v>3984</v>
       </c>
       <c r="D4" t="n">
-        <v>2331</v>
+        <v>2674</v>
       </c>
       <c r="E4" t="n">
         <v>120</v>
@@ -5408,52 +5408,52 @@
         <v>120</v>
       </c>
       <c r="G4" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H4" t="n">
-        <v>21376</v>
+        <v>63075</v>
       </c>
       <c r="I4" t="n">
-        <v>4194</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2331</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="L4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>10688</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>2097</v>
+        <v>5154</v>
       </c>
       <c r="P4" t="n">
-        <v>1165</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="S4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>5490</v>
+        <v>4907</v>
       </c>
       <c r="U4" t="n">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="V4" t="n">
-        <v>812</v>
+        <v>596</v>
       </c>
       <c r="W4" t="n">
         <v>105</v>
@@ -5462,72 +5462,72 @@
         <v>105</v>
       </c>
       <c r="Y4" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Z4" t="n">
-        <v>5490</v>
+        <v>15245</v>
       </c>
       <c r="AA4" t="n">
-        <v>959</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>812</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>105</v>
+        <v>315</v>
       </c>
       <c r="AD4" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>2745</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>479</v>
+        <v>1243</v>
       </c>
       <c r="AH4" t="n">
-        <v>406</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>52</v>
+        <v>156</v>
       </c>
       <c r="AK4" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>21,21376;31,4194;41,2331;22,120;32,120;42,120</t>
+          <t>21,20302;31,3984;41,2674;22,120;32,120;42,119</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>21,21376;31,4194;41,2331;22,120;32,120;42,120</t>
+          <t>21,63075;31,0;41,0;22,360;32,0;42,0</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>21,10688;31,2097;41,1165;22,60;32,60;42,60</t>
+          <t>21,0;31,5154;41,0;22,0;32,180;42,0</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>21,5490;31,959;41,812;22,105;32,105;42,105</t>
+          <t>21,4907;31,961;41,596;22,105;32,105;42,104</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>21,5490;31,959;41,812;22,105;32,105;42,105</t>
+          <t>21,15245;31,0;41,0;22,315;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>21,2745;31,479;41,406;22,52;32,52;42,52</t>
+          <t>21,0;31,1243;41,0;22,0;32,156;42,0</t>
         </is>
       </c>
     </row>
@@ -5536,13 +5536,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>28417</v>
+        <v>27070</v>
       </c>
       <c r="C5" t="n">
-        <v>5574</v>
+        <v>5312</v>
       </c>
       <c r="D5" t="n">
-        <v>3135</v>
+        <v>3565</v>
       </c>
       <c r="E5" t="n">
         <v>160</v>
@@ -5551,52 +5551,52 @@
         <v>160</v>
       </c>
       <c r="G5" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H5" t="n">
-        <v>28417</v>
+        <v>84101</v>
       </c>
       <c r="I5" t="n">
-        <v>5574</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>3135</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>160</v>
+        <v>480</v>
       </c>
       <c r="L5" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>14208</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2787</v>
+        <v>6872</v>
       </c>
       <c r="P5" t="n">
-        <v>1567</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="S5" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>5881</v>
+        <v>5257</v>
       </c>
       <c r="U5" t="n">
-        <v>1026</v>
+        <v>1030</v>
       </c>
       <c r="V5" t="n">
-        <v>883</v>
+        <v>649</v>
       </c>
       <c r="W5" t="n">
         <v>140</v>
@@ -5605,72 +5605,72 @@
         <v>140</v>
       </c>
       <c r="Y5" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Z5" t="n">
-        <v>5881</v>
+        <v>16334</v>
       </c>
       <c r="AA5" t="n">
-        <v>1026</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>883</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>140</v>
+        <v>420</v>
       </c>
       <c r="AD5" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>2940</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>513</v>
+        <v>1333</v>
       </c>
       <c r="AH5" t="n">
-        <v>441</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="AK5" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>21,28417;31,5574;41,3135;22,160;32,160;42,160</t>
+          <t>21,27070;31,5312;41,3565;22,160;32,160;42,159</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>21,28417;31,5574;41,3135;22,160;32,160;42,160</t>
+          <t>21,84101;31,0;41,0;22,480;32,0;42,0</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>21,14208;31,2787;41,1567;22,80;32,80;42,80</t>
+          <t>21,0;31,6872;41,0;22,0;32,240;42,0</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>21,5881;31,1026;41,883;22,140;32,140;42,140</t>
+          <t>21,5257;31,1030;41,649;22,140;32,140;42,139</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>21,5881;31,1026;41,883;22,140;32,140;42,140</t>
+          <t>21,16334;31,0;41,0;22,420;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>21,2940;31,513;41,441;22,70;32,70;42,70</t>
+          <t>21,0;31,1333;41,0;22,0;32,210;42,0</t>
         </is>
       </c>
     </row>
@@ -5679,13 +5679,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>35421</v>
+        <v>33837</v>
       </c>
       <c r="C6" t="n">
-        <v>6947</v>
+        <v>6641</v>
       </c>
       <c r="D6" t="n">
-        <v>3953</v>
+        <v>4457</v>
       </c>
       <c r="E6" t="n">
         <v>200</v>
@@ -5694,52 +5694,52 @@
         <v>200</v>
       </c>
       <c r="G6" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H6" t="n">
-        <v>35421</v>
+        <v>105126</v>
       </c>
       <c r="I6" t="n">
-        <v>6947</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>3953</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="L6" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>17710</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>3473</v>
+        <v>8591</v>
       </c>
       <c r="P6" t="n">
-        <v>1976</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="S6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>6161</v>
+        <v>5630</v>
       </c>
       <c r="U6" t="n">
-        <v>1075</v>
+        <v>1104</v>
       </c>
       <c r="V6" t="n">
-        <v>932</v>
+        <v>705</v>
       </c>
       <c r="W6" t="n">
         <v>175</v>
@@ -5748,72 +5748,72 @@
         <v>175</v>
       </c>
       <c r="Y6" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Z6" t="n">
-        <v>6161</v>
+        <v>17493</v>
       </c>
       <c r="AA6" t="n">
-        <v>1075</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>932</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>175</v>
+        <v>525</v>
       </c>
       <c r="AD6" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>3080</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>537</v>
+        <v>1428</v>
       </c>
       <c r="AH6" t="n">
-        <v>466</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>87</v>
+        <v>261</v>
       </c>
       <c r="AK6" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>21,35421;31,6947;41,3953;22,200;32,200;42,200</t>
+          <t>21,33837;31,6641;41,4457;22,200;32,200;42,199</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>21,35421;31,6947;41,3953;22,200;32,200;42,200</t>
+          <t>21,105126;31,0;41,0;22,600;32,0;42,0</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>21,17710;31,3473;41,1976;22,100;32,100;42,100</t>
+          <t>21,0;31,8591;41,0;22,0;32,300;42,0</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>21,6161;31,1075;41,932;22,175;32,175;42,175</t>
+          <t>21,5630;31,1104;41,705;22,175;32,175;42,174</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>21,6161;31,1075;41,932;22,175;32,175;42,175</t>
+          <t>21,17493;31,0;41,0;22,525;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>21,3080;31,537;41,466;22,87;32,87;42,87</t>
+          <t>21,0;31,1428;41,0;22,0;32,261;42,0</t>
         </is>
       </c>
     </row>
@@ -5822,13 +5822,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>41276</v>
+        <v>40605</v>
       </c>
       <c r="C7" t="n">
-        <v>8097</v>
+        <v>7969</v>
       </c>
       <c r="D7" t="n">
-        <v>5122</v>
+        <v>5348</v>
       </c>
       <c r="E7" t="n">
         <v>240</v>
@@ -5837,52 +5837,52 @@
         <v>240</v>
       </c>
       <c r="G7" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H7" t="n">
-        <v>41276</v>
+        <v>126151</v>
       </c>
       <c r="I7" t="n">
-        <v>8097</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>5122</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>240</v>
+        <v>720</v>
       </c>
       <c r="L7" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>20638</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>4048</v>
+        <v>10309</v>
       </c>
       <c r="P7" t="n">
-        <v>2561</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="S7" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>6454</v>
+        <v>6027</v>
       </c>
       <c r="U7" t="n">
-        <v>1126</v>
+        <v>1182</v>
       </c>
       <c r="V7" t="n">
-        <v>984</v>
+        <v>765</v>
       </c>
       <c r="W7" t="n">
         <v>210</v>
@@ -5891,72 +5891,72 @@
         <v>210</v>
       </c>
       <c r="Y7" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Z7" t="n">
-        <v>6454</v>
+        <v>18727</v>
       </c>
       <c r="AA7" t="n">
-        <v>1126</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>984</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>210</v>
+        <v>630</v>
       </c>
       <c r="AD7" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>3227</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>563</v>
+        <v>1529</v>
       </c>
       <c r="AH7" t="n">
-        <v>492</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>105</v>
+        <v>315</v>
       </c>
       <c r="AK7" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>21,41276;31,8097;41,5122;22,240;32,240;42,240</t>
+          <t>21,40605;31,7969;41,5348;22,240;32,240;42,239</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>21,41276;31,8097;41,5122;22,240;32,240;42,240</t>
+          <t>21,126151;31,0;41,0;22,720;32,0;42,0</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>21,20638;31,4048;41,2561;22,120;32,120;42,120</t>
+          <t>21,0;31,10309;41,0;22,0;32,360;42,0</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>21,6454;31,1126;41,984;22,210;32,210;42,210</t>
+          <t>21,6027;31,1182;41,765;22,210;32,210;42,209</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>21,6454;31,1126;41,984;22,210;32,210;42,210</t>
+          <t>21,18727;31,0;41,0;22,630;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>21,3227;31,563;41,492;22,105;32,105;42,105</t>
+          <t>21,0;31,1529;41,0;22,0;32,315;42,0</t>
         </is>
       </c>
     </row>
@@ -5965,13 +5965,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>47106</v>
+        <v>47372</v>
       </c>
       <c r="C8" t="n">
-        <v>9243</v>
+        <v>9297</v>
       </c>
       <c r="D8" t="n">
-        <v>6296</v>
+        <v>6239</v>
       </c>
       <c r="E8" t="n">
         <v>280</v>
@@ -5980,52 +5980,52 @@
         <v>280</v>
       </c>
       <c r="G8" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H8" t="n">
-        <v>47106</v>
+        <v>147177</v>
       </c>
       <c r="I8" t="n">
-        <v>9243</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6296</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>280</v>
+        <v>840</v>
       </c>
       <c r="L8" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>23553</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>4621</v>
+        <v>12027</v>
       </c>
       <c r="P8" t="n">
-        <v>3148</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>140</v>
+        <v>420</v>
       </c>
       <c r="S8" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>6762</v>
+        <v>6450</v>
       </c>
       <c r="U8" t="n">
-        <v>1179</v>
+        <v>1265</v>
       </c>
       <c r="V8" t="n">
-        <v>1038</v>
+        <v>830</v>
       </c>
       <c r="W8" t="n">
         <v>245</v>
@@ -6034,72 +6034,72 @@
         <v>245</v>
       </c>
       <c r="Y8" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Z8" t="n">
-        <v>6762</v>
+        <v>20039</v>
       </c>
       <c r="AA8" t="n">
-        <v>1179</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>1038</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>245</v>
+        <v>735</v>
       </c>
       <c r="AD8" t="n">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>3381</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>589</v>
+        <v>1637</v>
       </c>
       <c r="AH8" t="n">
-        <v>519</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>122</v>
+        <v>366</v>
       </c>
       <c r="AK8" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>21,47106;31,9243;41,6296;22,280;32,280;42,280</t>
+          <t>21,47372;31,9297;41,6239;22,280;32,280;42,279</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>21,47106;31,9243;41,6296;22,280;32,280;42,280</t>
+          <t>21,147177;31,0;41,0;22,840;32,0;42,0</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>21,23553;31,4621;41,3148;22,140;32,140;42,140</t>
+          <t>21,0;31,12027;41,0;22,0;32,420;42,0</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>21,6762;31,1179;41,1038;22,245;32,245;42,245</t>
+          <t>21,6450;31,1265;41,830;22,245;32,245;42,244</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>21,6762;31,1179;41,1038;22,245;32,245;42,245</t>
+          <t>21,20039;31,0;41,0;22,735;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>21,3381;31,589;41,519;22,122;32,122;42,122</t>
+          <t>21,0;31,1637;41,0;22,0;32,366;42,0</t>
         </is>
       </c>
     </row>
@@ -6108,13 +6108,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>53377</v>
+        <v>54140</v>
       </c>
       <c r="C9" t="n">
-        <v>10476</v>
+        <v>10625</v>
       </c>
       <c r="D9" t="n">
-        <v>7334</v>
+        <v>7131</v>
       </c>
       <c r="E9" t="n">
         <v>315</v>
@@ -6123,52 +6123,52 @@
         <v>315</v>
       </c>
       <c r="G9" t="n">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H9" t="n">
-        <v>53377</v>
+        <v>168202</v>
       </c>
       <c r="I9" t="n">
-        <v>10476</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7334</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>315</v>
+        <v>945</v>
       </c>
       <c r="L9" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>26688</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>5238</v>
+        <v>13745</v>
       </c>
       <c r="P9" t="n">
-        <v>3667</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>157</v>
+        <v>471</v>
       </c>
       <c r="S9" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>7353</v>
+        <v>7161</v>
       </c>
       <c r="U9" t="n">
-        <v>1283</v>
+        <v>1405</v>
       </c>
       <c r="V9" t="n">
-        <v>1144</v>
+        <v>940</v>
       </c>
       <c r="W9" t="n">
         <v>280</v>
@@ -6177,72 +6177,72 @@
         <v>280</v>
       </c>
       <c r="Y9" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Z9" t="n">
-        <v>7353</v>
+        <v>22250</v>
       </c>
       <c r="AA9" t="n">
-        <v>1283</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>1144</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>280</v>
+        <v>840</v>
       </c>
       <c r="AD9" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>3676</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>641</v>
+        <v>1818</v>
       </c>
       <c r="AH9" t="n">
-        <v>572</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>140</v>
+        <v>420</v>
       </c>
       <c r="AK9" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>21,53377;31,10476;41,7334;22,315;32,315;42,315</t>
+          <t>21,54140;31,10625;41,7131;22,315;32,315;42,314</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>21,53377;31,10476;41,7334;22,315;32,315;42,315</t>
+          <t>21,168202;31,0;41,0;22,945;32,0;42,0</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>21,26688;31,5238;41,3667;22,157;32,157;42,157</t>
+          <t>21,0;31,13745;41,0;22,0;32,471;42,0</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>21,7353;31,1283;41,1144;22,280;32,280;42,280</t>
+          <t>21,7161;31,1405;41,940;22,280;32,280;42,279</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>21,7353;31,1283;41,1144;22,280;32,280;42,280</t>
+          <t>21,22250;31,0;41,0;22,840;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>21,3676;31,641;41,572;22,140;32,140;42,140</t>
+          <t>21,0;31,1818;41,0;22,0;32,420;42,0</t>
         </is>
       </c>
     </row>
@@ -6251,13 +6251,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>60584</v>
+        <v>60907</v>
       </c>
       <c r="C10" t="n">
-        <v>11891</v>
+        <v>11953</v>
       </c>
       <c r="D10" t="n">
-        <v>8077</v>
+        <v>8022</v>
       </c>
       <c r="E10" t="n">
         <v>335</v>
@@ -6266,52 +6266,52 @@
         <v>335</v>
       </c>
       <c r="G10" t="n">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H10" t="n">
-        <v>60584</v>
+        <v>189227</v>
       </c>
       <c r="I10" t="n">
-        <v>11891</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>8077</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>335</v>
+        <v>1005</v>
       </c>
       <c r="L10" t="n">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>30292</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5945</v>
+        <v>15463</v>
       </c>
       <c r="P10" t="n">
-        <v>4038</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>167</v>
+        <v>501</v>
       </c>
       <c r="S10" t="n">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>7961</v>
+        <v>7754</v>
       </c>
       <c r="U10" t="n">
-        <v>1389</v>
+        <v>1521</v>
       </c>
       <c r="V10" t="n">
-        <v>1254</v>
+        <v>1030</v>
       </c>
       <c r="W10" t="n">
         <v>315</v>
@@ -6320,72 +6320,72 @@
         <v>315</v>
       </c>
       <c r="Y10" t="n">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Z10" t="n">
-        <v>7961</v>
+        <v>24091</v>
       </c>
       <c r="AA10" t="n">
-        <v>1389</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>1254</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>315</v>
+        <v>945</v>
       </c>
       <c r="AD10" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>3980</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>694</v>
+        <v>1968</v>
       </c>
       <c r="AH10" t="n">
-        <v>627</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>157</v>
+        <v>471</v>
       </c>
       <c r="AK10" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>21,60584;31,11891;41,8077;22,335;32,335;42,335</t>
+          <t>21,60907;31,11953;41,8022;22,335;32,335;42,334</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>21,60584;31,11891;41,8077;22,335;32,335;42,335</t>
+          <t>21,189227;31,0;41,0;22,1005;32,0;42,0</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>21,30292;31,5945;41,4038;22,167;32,167;42,167</t>
+          <t>21,0;31,15463;41,0;22,0;32,501;42,0</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>21,7961;31,1389;41,1254;22,315;32,315;42,315</t>
+          <t>21,7754;31,1521;41,1030;22,315;32,315;42,314</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>21,7961;31,1389;41,1254;22,315;32,315;42,315</t>
+          <t>21,24091;31,0;41,0;22,945;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>21,3980;31,694;41,627;22,157;32,157;42,157</t>
+          <t>21,0;31,1968;41,0;22,0;32,471;42,0</t>
         </is>
       </c>
     </row>
@@ -6409,52 +6409,52 @@
         <v>350</v>
       </c>
       <c r="G11" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H11" t="n">
-        <v>67675</v>
+        <v>210253</v>
       </c>
       <c r="I11" t="n">
-        <v>13282</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>8914</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>350</v>
+        <v>1050</v>
       </c>
       <c r="L11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>33837</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>6641</v>
+        <v>17182</v>
       </c>
       <c r="P11" t="n">
-        <v>4457</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>175</v>
+        <v>525</v>
       </c>
       <c r="S11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>8582</v>
+        <v>8360</v>
       </c>
       <c r="U11" t="n">
-        <v>1497</v>
+        <v>1640</v>
       </c>
       <c r="V11" t="n">
-        <v>1368</v>
+        <v>1124</v>
       </c>
       <c r="W11" t="n">
         <v>350</v>
@@ -6463,72 +6463,72 @@
         <v>350</v>
       </c>
       <c r="Y11" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Z11" t="n">
-        <v>8582</v>
+        <v>25973</v>
       </c>
       <c r="AA11" t="n">
-        <v>1497</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>1368</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>350</v>
+        <v>1050</v>
       </c>
       <c r="AD11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>4291</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>748</v>
+        <v>2122</v>
       </c>
       <c r="AH11" t="n">
-        <v>684</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>175</v>
+        <v>525</v>
       </c>
       <c r="AK11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>21,67675;31,13282;41,8914;22,350;32,350;42,350</t>
+          <t>21,67675;31,13282;41,8914;22,350;32,350;42,349</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>21,67675;31,13282;41,8914;22,350;32,350;42,350</t>
+          <t>21,210253;31,0;41,0;22,1050;32,0;42,0</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>21,33837;31,6641;41,4457;22,175;32,175;42,175</t>
+          <t>21,0;31,17182;41,0;22,0;32,525;42,0</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>21,8582;31,1497;41,1368;22,350;32,350;42,350</t>
+          <t>21,8360;31,1640;41,1124;22,350;32,350;42,349</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>21,8582;31,1497;41,1368;22,350;32,350;42,350</t>
+          <t>21,25973;31,0;41,0;22,1050;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>21,4291;31,748;41,684;22,175;32,175;42,175</t>
+          <t>21,0;31,2122;41,0;22,0;32,525;42,0</t>
         </is>
       </c>
     </row>
@@ -6839,13 +6839,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5493759.601052</v>
+        <v>5682283.017874001</v>
       </c>
       <c r="U2" t="n">
-        <v>915466.9922952</v>
+        <v>952468.6228382</v>
       </c>
       <c r="V2" t="n">
-        <v>636059.5784164</v>
+        <v>660846.89230066</v>
       </c>
       <c r="W2" t="n">
         <v>2300</v>
@@ -6886,8 +6886,16 @@
       <c r="AI2" t="n">
         <v>0</v>
       </c>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>21,572798;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>21,0;31,52761;41,0</t>
+        </is>
+      </c>
       <c r="AL2" t="n">
         <v>10745023.44237</v>
       </c>
@@ -6907,10 +6915,10 @@
         <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>586361.722403195</v>
       </c>
       <c r="AS2" t="n">
-        <v>15483205.92378318</v>
+        <v>16069567.64618638</v>
       </c>
     </row>
     <row r="3">
@@ -6974,13 +6982,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>693706.0636539999</v>
+        <v>715675.6149729999</v>
       </c>
       <c r="U3" t="n">
-        <v>133610.0875624</v>
+        <v>137921.3002534</v>
       </c>
       <c r="V3" t="n">
-        <v>83335.30754920001</v>
+        <v>86284.18639698</v>
       </c>
       <c r="W3" t="n">
         <v>2300</v>
@@ -7021,8 +7029,16 @@
       <c r="AI3" t="n">
         <v>0</v>
       </c>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>21,66801;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>21,0;31,6128;41,0</t>
+        </is>
+      </c>
       <c r="AL3" t="n">
         <v>1216940.38049</v>
       </c>
@@ -7042,10 +7058,10 @@
         <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>0</v>
+        <v>68672.972261635</v>
       </c>
       <c r="AS3" t="n">
-        <v>2110175.18624246</v>
+        <v>2178848.158504095</v>
       </c>
     </row>
     <row r="4">
@@ -7514,13 +7530,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>54384.202</v>
+        <v>61299.778808</v>
       </c>
       <c r="U7" t="n">
-        <v>10675.875</v>
+        <v>12035.0425</v>
       </c>
       <c r="V7" t="n">
-        <v>4816.309999999999</v>
+        <v>5721.101608999999</v>
       </c>
       <c r="W7" t="n">
         <v>1000</v>
@@ -7561,8 +7577,16 @@
       <c r="AI7" t="n">
         <v>0</v>
       </c>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>21,21470;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>21,0;31,1764;41,0</t>
+        </is>
+      </c>
       <c r="AL7" t="n">
         <v>112066.922</v>
       </c>
@@ -7582,10 +7606,10 @@
         <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>0</v>
+        <v>21496.38430975</v>
       </c>
       <c r="AS7" t="n">
-        <v>160889.022</v>
+        <v>182385.40630975</v>
       </c>
     </row>
     <row r="8">
@@ -7649,13 +7673,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>54755.64402000001</v>
+        <v>68587.797636</v>
       </c>
       <c r="U8" t="n">
-        <v>10707.0425</v>
+        <v>13425.3775</v>
       </c>
       <c r="V8" t="n">
-        <v>4837.527859999999</v>
+        <v>6647.464708999999</v>
       </c>
       <c r="W8" t="n">
         <v>1000</v>
@@ -7696,8 +7720,16 @@
       <c r="AI8" t="n">
         <v>0</v>
       </c>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>21,42941;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>21,0;31,3529;41,0</t>
+        </is>
+      </c>
       <c r="AL8" t="n">
         <v>112066.922</v>
       </c>
@@ -7717,10 +7749,10 @@
         <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>42995.80199775</v>
       </c>
       <c r="AS8" t="n">
-        <v>161597.522465</v>
+        <v>204593.32446275</v>
       </c>
     </row>
     <row r="9">
@@ -7919,13 +7951,13 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>230291.655038</v>
+        <v>237730.4675332</v>
       </c>
       <c r="U10" t="n">
-        <v>43292.037344</v>
+        <v>44751.738688</v>
       </c>
       <c r="V10" t="n">
-        <v>23176.989164</v>
+        <v>24140.1360206</v>
       </c>
       <c r="W10" t="n">
         <v>2300</v>
@@ -7966,8 +7998,16 @@
       <c r="AI10" t="n">
         <v>0</v>
       </c>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>21,23040;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>21,0;31,1915;41,0</t>
+        </is>
+      </c>
       <c r="AL10" t="n">
         <v>502333.3077</v>
       </c>
@@ -7987,10 +8027,10 @@
         <v>0</v>
       </c>
       <c r="AR10" t="n">
-        <v>0</v>
+        <v>23048.84619425</v>
       </c>
       <c r="AS10" t="n">
-        <v>674568.4004046</v>
+        <v>697617.24659885</v>
       </c>
     </row>
     <row r="11">
@@ -8054,13 +8094,13 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>247086.967418</v>
+        <v>284283.029894</v>
       </c>
       <c r="U11" t="n">
-        <v>44609.05078399999</v>
+        <v>51908.55750399999</v>
       </c>
       <c r="V11" t="n">
-        <v>24286.940804</v>
+        <v>29112.0747646</v>
       </c>
       <c r="W11" t="n">
         <v>2300</v>
@@ -8101,8 +8141,16 @@
       <c r="AI11" t="n">
         <v>0</v>
       </c>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>21,115203;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>21,0;31,9578;41,0</t>
+        </is>
+      </c>
       <c r="AL11" t="n">
         <v>502333.3077</v>
       </c>
@@ -8122,10 +8170,10 @@
         <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>0</v>
+        <v>115307.17911745</v>
       </c>
       <c r="AS11" t="n">
-        <v>707045.8274505999</v>
+        <v>822353.0065680499</v>
       </c>
     </row>
     <row r="12">
@@ -8189,13 +8237,13 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>263882.279798</v>
+        <v>301078.342274</v>
       </c>
       <c r="U12" t="n">
-        <v>45926.06422399999</v>
+        <v>53225.57094399999</v>
       </c>
       <c r="V12" t="n">
-        <v>25396.892444</v>
+        <v>30222.0264046</v>
       </c>
       <c r="W12" t="n">
         <v>2300</v>
@@ -8236,8 +8284,16 @@
       <c r="AI12" t="n">
         <v>0</v>
       </c>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>21,115203;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>21,0;31,9578;41,0</t>
+        </is>
+      </c>
       <c r="AL12" t="n">
         <v>502333.3077</v>
       </c>
@@ -8257,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="AR12" t="n">
-        <v>0</v>
+        <v>115307.17911745</v>
       </c>
       <c r="AS12" t="n">
-        <v>739523.2544965999</v>
+        <v>854830.4336140499</v>
       </c>
     </row>
     <row r="13">
@@ -8324,13 +8380,13 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>280677.592178</v>
+        <v>354230.9515110001</v>
       </c>
       <c r="U13" t="n">
-        <v>47243.077664</v>
+        <v>61677.464424</v>
       </c>
       <c r="V13" t="n">
-        <v>26506.844084</v>
+        <v>36066.4659546</v>
       </c>
       <c r="W13" t="n">
         <v>2300</v>
@@ -8371,8 +8427,16 @@
       <c r="AI13" t="n">
         <v>0</v>
       </c>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>21,227888;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>21,0;31,18910;41,0</t>
+        </is>
+      </c>
       <c r="AL13" t="n">
         <v>502333.3077</v>
       </c>
@@ -8392,10 +8456,10 @@
         <v>0</v>
       </c>
       <c r="AR13" t="n">
-        <v>0</v>
+        <v>228118.45373295</v>
       </c>
       <c r="AS13" t="n">
-        <v>772000.6815425999</v>
+        <v>1000119.13527555</v>
       </c>
     </row>
     <row r="14">
@@ -8459,13 +8523,13 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>280677.592178</v>
+        <v>317873.654654</v>
       </c>
       <c r="U14" t="n">
-        <v>47243.077664</v>
+        <v>54542.58438399999</v>
       </c>
       <c r="V14" t="n">
-        <v>26506.844084</v>
+        <v>31331.9780446</v>
       </c>
       <c r="W14" t="n">
         <v>2300</v>
@@ -8506,8 +8570,16 @@
       <c r="AI14" t="n">
         <v>0</v>
       </c>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>21,115203;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>21,0;31,9578;41,0</t>
+        </is>
+      </c>
       <c r="AL14" t="n">
         <v>502333.3077</v>
       </c>
@@ -8527,10 +8599,10 @@
         <v>0</v>
       </c>
       <c r="AR14" t="n">
-        <v>0</v>
+        <v>115307.17911745</v>
       </c>
       <c r="AS14" t="n">
-        <v>771825.6815425999</v>
+        <v>887132.8606600499</v>
       </c>
     </row>
     <row r="15">
@@ -8594,13 +8666,13 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>423913.811554</v>
+        <v>470555.2294755999</v>
       </c>
       <c r="U15" t="n">
-        <v>71009.5243504</v>
+        <v>80162.32914079999</v>
       </c>
       <c r="V15" t="n">
-        <v>44804.7747436</v>
+        <v>50894.01681474</v>
       </c>
       <c r="W15" t="n">
         <v>2300</v>
@@ -8641,8 +8713,16 @@
       <c r="AI15" t="n">
         <v>0</v>
       </c>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>21,144260;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>21,0;31,12084;41,0</t>
+        </is>
+      </c>
       <c r="AL15" t="n">
         <v>771018.58809</v>
       </c>
@@ -8662,10 +8742,10 @@
         <v>0</v>
       </c>
       <c r="AR15" t="n">
-        <v>0</v>
+        <v>144808.912884415</v>
       </c>
       <c r="AS15" t="n">
-        <v>1184613.48434746</v>
+        <v>1329422.397231875</v>
       </c>
     </row>
     <row r="16">
@@ -8729,13 +8809,13 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>423913.811554</v>
+        <v>478328.2991291999</v>
       </c>
       <c r="U16" t="n">
-        <v>71009.5243504</v>
+        <v>81687.62993919999</v>
       </c>
       <c r="V16" t="n">
-        <v>44804.7747436</v>
+        <v>51909.07406514</v>
       </c>
       <c r="W16" t="n">
         <v>2300</v>
@@ -8776,8 +8856,16 @@
       <c r="AI16" t="n">
         <v>0</v>
       </c>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>21,168304;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>21,0;31,14098;41,0</t>
+        </is>
+      </c>
       <c r="AL16" t="n">
         <v>771018.58809</v>
       </c>
@@ -8797,10 +8885,10 @@
         <v>0</v>
       </c>
       <c r="AR16" t="n">
-        <v>0</v>
+        <v>168943.137236775</v>
       </c>
       <c r="AS16" t="n">
-        <v>1184788.48434746</v>
+        <v>1353731.621584235</v>
       </c>
     </row>
     <row r="17">
@@ -8864,13 +8952,13 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1082298.479854</v>
+        <v>1153987.5501711</v>
       </c>
       <c r="U17" t="n">
-        <v>179053.3092576</v>
+        <v>193121.6826932</v>
       </c>
       <c r="V17" t="n">
-        <v>127329.4132</v>
+        <v>136906.98188</v>
       </c>
       <c r="W17" t="n">
         <v>2300</v>
@@ -8911,8 +8999,16 @@
       <c r="AI17" t="n">
         <v>0</v>
       </c>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>21,220849;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>21,0;31,18893;41,0</t>
+        </is>
+      </c>
       <c r="AL17" t="n">
         <v>1760219.24596</v>
       </c>
@@ -8932,10 +9028,10 @@
         <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>0</v>
+        <v>223831.86693274</v>
       </c>
       <c r="AS17" t="n">
-        <v>3063891.93963144</v>
+        <v>3287723.80656418</v>
       </c>
     </row>
     <row r="18">
@@ -8999,13 +9095,13 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5493759.601052</v>
+        <v>5682283.017874001</v>
       </c>
       <c r="U18" t="n">
-        <v>915466.9922952</v>
+        <v>952468.6228382</v>
       </c>
       <c r="V18" t="n">
-        <v>636059.5784164</v>
+        <v>660846.89230066</v>
       </c>
       <c r="W18" t="n">
         <v>2300</v>
@@ -9046,8 +9142,16 @@
       <c r="AI18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>21,572798;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>21,0;31,52761;41,0</t>
+        </is>
+      </c>
       <c r="AL18" t="n">
         <v>10745023.44237</v>
       </c>
@@ -9067,10 +9171,10 @@
         <v>0</v>
       </c>
       <c r="AR18" t="n">
-        <v>0</v>
+        <v>586361.722403195</v>
       </c>
       <c r="AS18" t="n">
-        <v>15483205.92378318</v>
+        <v>16069567.64618638</v>
       </c>
     </row>
     <row r="19">
@@ -9134,13 +9238,13 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>9084460.912766</v>
+        <v>9272984.329588</v>
       </c>
       <c r="U19" t="n">
-        <v>1512225.6689208</v>
+        <v>1549227.2994638</v>
       </c>
       <c r="V19" t="n">
-        <v>1046486.3706448</v>
+        <v>1071273.68452906</v>
       </c>
       <c r="W19" t="n">
         <v>2300</v>
@@ -9181,8 +9285,16 @@
       <c r="AI19" t="n">
         <v>0</v>
       </c>
-      <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>21,572798;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>21,0;31,52761;41,0</t>
+        </is>
+      </c>
       <c r="AL19" t="n">
         <v>17439348.16918</v>
       </c>
@@ -9202,10 +9314,10 @@
         <v>0</v>
       </c>
       <c r="AR19" t="n">
-        <v>0</v>
+        <v>586361.722403195</v>
       </c>
       <c r="AS19" t="n">
-        <v>25553771.15952712</v>
+        <v>26140132.88193032</v>
       </c>
     </row>
     <row r="20">
@@ -9269,13 +9381,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>206820.527905</v>
+        <v>210943.70349675</v>
       </c>
       <c r="U20" t="n">
-        <v>41939.487298</v>
+        <v>42803.14537125</v>
       </c>
       <c r="V20" t="n">
-        <v>20558.476396</v>
+        <v>20984.4756204</v>
       </c>
       <c r="W20" t="n">
         <v>1000</v>
@@ -9316,8 +9428,16 @@
       <c r="AI20" t="n">
         <v>0</v>
       </c>
-      <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>21,12745;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>21,0;31,1137;41,0</t>
+        </is>
+      </c>
       <c r="AL20" t="n">
         <v>534795.5715500001</v>
       </c>
@@ -9337,10 +9457,10 @@
         <v>0</v>
       </c>
       <c r="AR20" t="n">
-        <v>0</v>
+        <v>12531.911837475</v>
       </c>
       <c r="AS20" t="n">
-        <v>619561.7295382001</v>
+        <v>632093.641375675</v>
       </c>
     </row>
     <row r="21">
@@ -9404,13 +9524,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>279809.52793</v>
+        <v>285286.042971</v>
       </c>
       <c r="U21" t="n">
-        <v>52211.4772336</v>
+        <v>53322.1451844</v>
       </c>
       <c r="V21" t="n">
-        <v>28453.2521652</v>
+        <v>29062.72734338</v>
       </c>
       <c r="W21" t="n">
         <v>1250</v>
@@ -9451,8 +9571,16 @@
       <c r="AI21" t="n">
         <v>0</v>
       </c>
-      <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>21,16860;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>21,0;31,1497;41,0</t>
+        </is>
+      </c>
       <c r="AL21" t="n">
         <v>630814.87251</v>
       </c>
@@ -9472,10 +9600,10 @@
         <v>0</v>
       </c>
       <c r="AR21" t="n">
-        <v>0</v>
+        <v>16644.606176055</v>
       </c>
       <c r="AS21" t="n">
-        <v>811283.6707917401</v>
+        <v>827928.2769677951</v>
       </c>
     </row>
     <row r="22">
@@ -9539,13 +9667,13 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>398233.701322</v>
+        <v>408393.8974155</v>
       </c>
       <c r="U22" t="n">
-        <v>69835.42633040001</v>
+        <v>71827.21919090001</v>
       </c>
       <c r="V22" t="n">
-        <v>42320.989268</v>
+        <v>43582.4676812</v>
       </c>
       <c r="W22" t="n">
         <v>2300</v>
@@ -9586,8 +9714,16 @@
       <c r="AI22" t="n">
         <v>0</v>
       </c>
-      <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>21,31083;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>21,0;31,2752;41,0</t>
+        </is>
+      </c>
       <c r="AL22" t="n">
         <v>793631.11884</v>
       </c>
@@ -9607,10 +9743,10 @@
         <v>0</v>
       </c>
       <c r="AR22" t="n">
-        <v>0</v>
+        <v>31157.06770685</v>
       </c>
       <c r="AS22" t="n">
-        <v>1136162.83129276</v>
+        <v>1167319.89899961</v>
       </c>
     </row>
     <row r="23">
@@ -9674,13 +9810,13 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>469752.783633</v>
+        <v>483084.43683835</v>
       </c>
       <c r="U23" t="n">
-        <v>81468.2816592</v>
+        <v>84082.81493380001</v>
       </c>
       <c r="V23" t="n">
-        <v>50505.97263020001</v>
+        <v>52201.10636728001</v>
       </c>
       <c r="W23" t="n">
         <v>2300</v>
@@ -9721,8 +9857,16 @@
       <c r="AI23" t="n">
         <v>0</v>
       </c>
-      <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>21,40683;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>21,0;31,3653;41,0</t>
+        </is>
+      </c>
       <c r="AL23" t="n">
         <v>865655.1698449999</v>
       </c>
@@ -9742,10 +9886,10 @@
         <v>0</v>
       </c>
       <c r="AR23" t="n">
-        <v>0</v>
+        <v>41118.9517883</v>
       </c>
       <c r="AS23" t="n">
-        <v>1335574.76970513</v>
+        <v>1376693.72149343</v>
       </c>
     </row>
     <row r="24">
@@ -9809,13 +9953,13 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>542981.2326</v>
+        <v>558983.88948</v>
       </c>
       <c r="U24" t="n">
-        <v>98625.81529120001</v>
+        <v>101765.7893376</v>
       </c>
       <c r="V24" t="n">
-        <v>61299.6663996</v>
+        <v>63381.94006954</v>
       </c>
       <c r="W24" t="n">
         <v>2300</v>
@@ -9856,8 +10000,16 @@
       <c r="AI24" t="n">
         <v>0</v>
       </c>
-      <c r="AJ24" t="inlineStr"/>
-      <c r="AK24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>21,48774;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>21,0;31,4420;41,0</t>
+        </is>
+      </c>
       <c r="AL24" t="n">
         <v>979560.4601700001</v>
       </c>
@@ -9877,10 +10029,10 @@
         <v>0</v>
       </c>
       <c r="AR24" t="n">
-        <v>0</v>
+        <v>49641.551402315</v>
       </c>
       <c r="AS24" t="n">
-        <v>1589953.93990698</v>
+        <v>1639595.491309295</v>
       </c>
     </row>
     <row r="25">
@@ -9944,13 +10096,13 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>693706.0636539999</v>
+        <v>715675.6149729999</v>
       </c>
       <c r="U25" t="n">
-        <v>133610.0875624</v>
+        <v>137921.3002534</v>
       </c>
       <c r="V25" t="n">
-        <v>83335.30754920001</v>
+        <v>86284.18639698</v>
       </c>
       <c r="W25" t="n">
         <v>2300</v>
@@ -9991,8 +10143,16 @@
       <c r="AI25" t="n">
         <v>0</v>
       </c>
-      <c r="AJ25" t="inlineStr"/>
-      <c r="AK25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>21,66801;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>21,0;31,6128;41,0</t>
+        </is>
+      </c>
       <c r="AL25" t="n">
         <v>1216940.38049</v>
       </c>
@@ -10012,10 +10172,10 @@
         <v>0</v>
       </c>
       <c r="AR25" t="n">
-        <v>0</v>
+        <v>68672.972261635</v>
       </c>
       <c r="AS25" t="n">
-        <v>2110175.18624246</v>
+        <v>2178848.158504095</v>
       </c>
     </row>
   </sheetData>

--- a/opm_hero_property/heroes/88.xlsx
+++ b/opm_hero_property/heroes/88.xlsx
@@ -6543,7 +6543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS25"/>
+  <dimension ref="A1:AW25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6739,40 +6739,60 @@
       </c>
       <c r="AL1" t="inlineStr">
         <is>
+          <t>job_contact</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>attr_addition</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>pvp_addition</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
           <t>基础战力</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>装备战力</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>天赋战力</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>研究所战力</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>职阶战力</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>机械核心战力</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>限制器战力</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>收集战力</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
         <is>
           <t>总战力</t>
         </is>
@@ -6812,7 +6832,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L2" t="n">
         <v>88</v>
@@ -6839,13 +6859,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5682283.017874001</v>
+        <v>6510956.970610001</v>
       </c>
       <c r="U2" t="n">
-        <v>952468.6228382</v>
+        <v>1115116.9212222</v>
       </c>
       <c r="V2" t="n">
-        <v>660846.89230066</v>
+        <v>770003.71209266</v>
       </c>
       <c r="W2" t="n">
         <v>2300</v>
@@ -6884,7 +6904,7 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
@@ -6897,28 +6917,36 @@
         </is>
       </c>
       <c r="AL2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="n">
         <v>10745023.44237</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AP2" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AQ2" t="n">
         <v>2137285.43141318</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AR2" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP2" t="n">
-        <v>2005624.4</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
+        <v>2865160.2753896</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1719063.05</v>
+      </c>
+      <c r="AU2" t="n">
         <v>586361.722403195</v>
       </c>
-      <c r="AS2" t="n">
-        <v>16069567.64618638</v>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>18648166.57157598</v>
       </c>
     </row>
     <row r="3">
@@ -6955,7 +6983,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L3" t="n">
         <v>88</v>
@@ -6982,13 +7010,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>715675.6149729999</v>
+        <v>808998.1608449999</v>
       </c>
       <c r="U3" t="n">
-        <v>137921.3002534</v>
+        <v>156237.9292614</v>
       </c>
       <c r="V3" t="n">
-        <v>86284.18639698</v>
+        <v>98833.28977298</v>
       </c>
       <c r="W3" t="n">
         <v>2300</v>
@@ -7027,7 +7055,7 @@
         <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
@@ -7040,28 +7068,36 @@
         </is>
       </c>
       <c r="AL3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="n">
         <v>1216940.38049</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AP3" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AQ3" t="n">
         <v>242401.80575246</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AR3" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP3" t="n">
-        <v>467803.6</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
+      <c r="AS3" t="n">
+        <v>565092.8304392</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>194575.4</v>
+      </c>
+      <c r="AU3" t="n">
         <v>68672.972261635</v>
       </c>
-      <c r="AS3" t="n">
-        <v>2178848.158504095</v>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>2470712.788943295</v>
       </c>
     </row>
     <row r="4">
@@ -7098,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>88</v>
@@ -7125,13 +7161,13 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>7192.9788</v>
+        <v>7628.9788</v>
       </c>
       <c r="U4" t="n">
-        <v>1645.7864</v>
+        <v>1730.7864</v>
       </c>
       <c r="V4" t="n">
-        <v>511.3302</v>
+        <v>568.3302</v>
       </c>
       <c r="W4" t="n">
         <v>562</v>
@@ -7170,25 +7206,21 @@
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="n">
         <v>18752.40361</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AP4" t="n">
         <v>4549.950000000001</v>
       </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ4" t="n">
         <v>0</v>
       </c>
@@ -7196,7 +7228,19 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>23302.35361</v>
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1350.25</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>24652.60361</v>
       </c>
     </row>
     <row r="5">
@@ -7233,7 +7277,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>88</v>
@@ -7260,13 +7304,13 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>19071.8371</v>
+        <v>31899.8371</v>
       </c>
       <c r="U5" t="n">
-        <v>4133.736199999999</v>
+        <v>6650.736199999999</v>
       </c>
       <c r="V5" t="n">
-        <v>1530.845</v>
+        <v>3219.845</v>
       </c>
       <c r="W5" t="n">
         <v>673</v>
@@ -7305,25 +7349,21 @@
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="n">
         <v>47291.07563</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AP5" t="n">
         <v>11988.35</v>
       </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ5" t="n">
         <v>0</v>
       </c>
@@ -7331,7 +7371,19 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>59279.42563</v>
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>39907.05</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>99186.47563</v>
       </c>
     </row>
     <row r="6">
@@ -7368,7 +7420,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
         <v>88</v>
@@ -7395,13 +7447,13 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>54384.202</v>
+        <v>109380.202</v>
       </c>
       <c r="U6" t="n">
-        <v>10675.875</v>
+        <v>21469.875</v>
       </c>
       <c r="V6" t="n">
-        <v>4816.309999999999</v>
+        <v>12060.31</v>
       </c>
       <c r="W6" t="n">
         <v>1000</v>
@@ -7440,33 +7492,41 @@
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="n">
         <v>112066.922</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AP6" t="n">
         <v>32846</v>
       </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AS6" t="n">
         <v>9640.6</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>160714.022</v>
+      <c r="AT6" t="n">
+        <v>171127.6</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>331841.622</v>
       </c>
     </row>
     <row r="7">
@@ -7503,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
         <v>88</v>
@@ -7530,13 +7590,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>61299.778808</v>
+        <v>116295.778808</v>
       </c>
       <c r="U7" t="n">
-        <v>12035.0425</v>
+        <v>22829.0425</v>
       </c>
       <c r="V7" t="n">
-        <v>5721.101608999999</v>
+        <v>12965.101609</v>
       </c>
       <c r="W7" t="n">
         <v>1000</v>
@@ -7575,7 +7635,7 @@
         <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
@@ -7588,28 +7648,36 @@
         </is>
       </c>
       <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="n">
         <v>112066.922</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AP7" t="n">
         <v>32846</v>
       </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AS7" t="n">
         <v>9815.6</v>
       </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
+      <c r="AT7" t="n">
+        <v>171127.6</v>
+      </c>
+      <c r="AU7" t="n">
         <v>21496.38430975</v>
       </c>
-      <c r="AS7" t="n">
-        <v>182385.40630975</v>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>353513.00630975</v>
       </c>
     </row>
     <row r="8">
@@ -7646,7 +7714,7 @@
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L8" t="n">
         <v>88</v>
@@ -7673,13 +7741,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>68587.797636</v>
+        <v>123583.797636</v>
       </c>
       <c r="U8" t="n">
-        <v>13425.3775</v>
+        <v>24219.3775</v>
       </c>
       <c r="V8" t="n">
-        <v>6647.464708999999</v>
+        <v>13891.464709</v>
       </c>
       <c r="W8" t="n">
         <v>1000</v>
@@ -7718,7 +7786,7 @@
         <v>2</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
@@ -7731,28 +7799,36 @@
         </is>
       </c>
       <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="n">
         <v>112066.922</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AP8" t="n">
         <v>32846</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AQ8" t="n">
         <v>708.5004650000001</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AR8" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AS8" t="n">
         <v>9815.6</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
+      <c r="AT8" t="n">
+        <v>171127.6</v>
+      </c>
+      <c r="AU8" t="n">
         <v>42995.80199775</v>
       </c>
-      <c r="AS8" t="n">
-        <v>204593.32446275</v>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>375720.92446275</v>
       </c>
     </row>
     <row r="9">
@@ -7789,7 +7865,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
         <v>88</v>
@@ -7816,31 +7892,31 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>228612.1238</v>
+        <v>395946.655038</v>
       </c>
       <c r="U9" t="n">
-        <v>43160.336</v>
+        <v>73725.58936</v>
       </c>
       <c r="V9" t="n">
-        <v>23065.994</v>
+        <v>44280.98594</v>
       </c>
       <c r="W9" t="n">
-        <v>2300</v>
+        <v>2310</v>
       </c>
       <c r="X9" t="n">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="Y9" t="n">
         <v>15000</v>
       </c>
       <c r="Z9" t="n">
-        <v>2160</v>
+        <v>2170</v>
       </c>
       <c r="AA9" t="n">
-        <v>3810</v>
+        <v>3820</v>
       </c>
       <c r="AB9" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -7861,33 +7937,41 @@
         <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="n">
         <v>502333.3077</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AP9" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP9" t="n">
-        <v>39618.60000000001</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
       <c r="AS9" t="n">
-        <v>671341.9076999999</v>
+        <v>44633.683077</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>400978.3</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>94347.60000000001</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>1171682.890777</v>
       </c>
     </row>
     <row r="10">
@@ -7924,7 +8008,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L10" t="n">
         <v>88</v>
@@ -7951,31 +8035,31 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>237730.4675332</v>
+        <v>461953.1287490816</v>
       </c>
       <c r="U10" t="n">
-        <v>44751.738688</v>
+        <v>84749.971761728</v>
       </c>
       <c r="V10" t="n">
-        <v>24140.1360206</v>
+        <v>51668.7202638908</v>
       </c>
       <c r="W10" t="n">
-        <v>2300</v>
+        <v>2310</v>
       </c>
       <c r="X10" t="n">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="Y10" t="n">
         <v>15000</v>
       </c>
       <c r="Z10" t="n">
-        <v>2160</v>
+        <v>2170</v>
       </c>
       <c r="AA10" t="n">
-        <v>3810</v>
+        <v>3820</v>
       </c>
       <c r="AB10" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -7996,7 +8080,7 @@
         <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
@@ -8009,28 +8093,40 @@
         </is>
       </c>
       <c r="AL10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO10" t="n">
         <v>502333.3077</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AP10" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AQ10" t="n">
         <v>3226.4927046</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AR10" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP10" t="n">
-        <v>39618.60000000001</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="n">
+      <c r="AS10" t="n">
+        <v>44633.683077</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>400978.3</v>
+      </c>
+      <c r="AU10" t="n">
         <v>23048.84619425</v>
       </c>
-      <c r="AS10" t="n">
-        <v>697617.24659885</v>
+      <c r="AV10" t="n">
+        <v>252626.4457465269</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>1356237.075422377</v>
       </c>
     </row>
     <row r="11">
@@ -8067,7 +8163,7 @@
         <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L11" t="n">
         <v>88</v>
@@ -8094,31 +8190,31 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>284283.029894</v>
+        <v>573518.3572323761</v>
       </c>
       <c r="U11" t="n">
-        <v>51908.55750399999</v>
+        <v>100875.124055104</v>
       </c>
       <c r="V11" t="n">
-        <v>29112.0747646</v>
+        <v>63856.1539052828</v>
       </c>
       <c r="W11" t="n">
-        <v>2300</v>
+        <v>2310</v>
       </c>
       <c r="X11" t="n">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="Y11" t="n">
         <v>15000</v>
       </c>
       <c r="Z11" t="n">
-        <v>2160</v>
+        <v>2170</v>
       </c>
       <c r="AA11" t="n">
-        <v>4060</v>
+        <v>4070</v>
       </c>
       <c r="AB11" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -8139,7 +8235,7 @@
         <v>5</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
@@ -8152,28 +8248,40 @@
         </is>
       </c>
       <c r="AL11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO11" t="n">
         <v>502333.3077</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AP11" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AQ11" t="n">
         <v>35703.9197506</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AR11" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP11" t="n">
-        <v>39618.60000000001</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="n">
+      <c r="AS11" t="n">
+        <v>44633.683077</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>400978.3</v>
+      </c>
+      <c r="AU11" t="n">
         <v>115307.17911745</v>
       </c>
-      <c r="AS11" t="n">
-        <v>822353.0065680499</v>
+      <c r="AV11" t="n">
+        <v>421009.7085229199</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>1649356.09816797</v>
       </c>
     </row>
     <row r="12">
@@ -8210,7 +8318,7 @@
         <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L12" t="n">
         <v>88</v>
@@ -8237,31 +8345,31 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>301078.342274</v>
+        <v>672990.999855752</v>
       </c>
       <c r="U12" t="n">
-        <v>53225.57094399999</v>
+        <v>111541.007614384</v>
       </c>
       <c r="V12" t="n">
-        <v>30222.0264046</v>
+        <v>75637.75711507321</v>
       </c>
       <c r="W12" t="n">
-        <v>2300</v>
+        <v>2320</v>
       </c>
       <c r="X12" t="n">
-        <v>930</v>
+        <v>950</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>2160</v>
+        <v>2180</v>
       </c>
       <c r="AA12" t="n">
-        <v>4310</v>
+        <v>4330</v>
       </c>
       <c r="AB12" t="n">
-        <v>1080</v>
+        <v>1160</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -8282,7 +8390,7 @@
         <v>5</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
@@ -8295,28 +8403,40 @@
         </is>
       </c>
       <c r="AL12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO12" t="n">
         <v>502333.3077</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AP12" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AQ12" t="n">
         <v>68181.34679659999</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AR12" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP12" t="n">
-        <v>39618.60000000001</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" t="n">
+      <c r="AS12" t="n">
+        <v>44633.683077</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>400978.3</v>
+      </c>
+      <c r="AU12" t="n">
         <v>115307.17911745</v>
       </c>
-      <c r="AS12" t="n">
-        <v>854830.4336140499</v>
+      <c r="AV12" t="n">
+        <v>629676.2391156225</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>1890500.055806673</v>
       </c>
     </row>
     <row r="13">
@@ -8353,7 +8473,7 @@
         <v>10</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L13" t="n">
         <v>88</v>
@@ -8380,31 +8500,31 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>354230.9515110001</v>
+        <v>823331.829886729</v>
       </c>
       <c r="U13" t="n">
-        <v>61677.464424</v>
+        <v>133018.654857464</v>
       </c>
       <c r="V13" t="n">
-        <v>36066.4659546</v>
+        <v>92581.13512617321</v>
       </c>
       <c r="W13" t="n">
-        <v>2300</v>
+        <v>2350</v>
       </c>
       <c r="X13" t="n">
-        <v>930</v>
+        <v>980</v>
       </c>
       <c r="Y13" t="n">
         <v>15000</v>
       </c>
       <c r="Z13" t="n">
-        <v>2160</v>
+        <v>2210</v>
       </c>
       <c r="AA13" t="n">
-        <v>4560</v>
+        <v>4610</v>
       </c>
       <c r="AB13" t="n">
-        <v>1080</v>
+        <v>1280</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -8425,7 +8545,7 @@
         <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
@@ -8438,28 +8558,40 @@
         </is>
       </c>
       <c r="AL13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO13" t="n">
         <v>502333.3077</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AP13" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AQ13" t="n">
         <v>100658.7738426</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AR13" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP13" t="n">
-        <v>39618.60000000001</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="n">
+      <c r="AS13" t="n">
+        <v>44633.683077</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>400978.3</v>
+      </c>
+      <c r="AU13" t="n">
         <v>228118.45373295</v>
       </c>
-      <c r="AS13" t="n">
-        <v>1000119.13527555</v>
+      <c r="AV13" t="n">
+        <v>880921.0570261765</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>2287033.575378726</v>
       </c>
     </row>
     <row r="14">
@@ -8496,7 +8628,7 @@
         <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L14" t="n">
         <v>88</v>
@@ -8523,31 +8655,31 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>317873.654654</v>
+        <v>918115.2668148162</v>
       </c>
       <c r="U14" t="n">
-        <v>54542.58438399999</v>
+        <v>140586.841849856</v>
       </c>
       <c r="V14" t="n">
-        <v>31331.9780446</v>
+        <v>98192.35326423041</v>
       </c>
       <c r="W14" t="n">
-        <v>2300</v>
+        <v>2350</v>
       </c>
       <c r="X14" t="n">
-        <v>860</v>
+        <v>910</v>
       </c>
       <c r="Y14" t="n">
         <v>15000</v>
       </c>
       <c r="Z14" t="n">
-        <v>2160</v>
+        <v>2210</v>
       </c>
       <c r="AA14" t="n">
-        <v>4490</v>
+        <v>4540</v>
       </c>
       <c r="AB14" t="n">
-        <v>1080</v>
+        <v>1280</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -8568,7 +8700,7 @@
         <v>5</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
@@ -8581,28 +8713,40 @@
         </is>
       </c>
       <c r="AL14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO14" t="n">
         <v>502333.3077</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AP14" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AQ14" t="n">
         <v>100658.7738426</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AR14" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP14" t="n">
-        <v>39443.60000000001</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
+      <c r="AS14" t="n">
+        <v>44458.683077</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>400978.3</v>
+      </c>
+      <c r="AU14" t="n">
         <v>115307.17911745</v>
       </c>
-      <c r="AS14" t="n">
-        <v>887132.8606600499</v>
+      <c r="AV14" t="n">
+        <v>1173000.763111098</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>2466127.006848148</v>
       </c>
     </row>
     <row r="15">
@@ -8639,7 +8783,7 @@
         <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L15" t="n">
         <v>88</v>
@@ -8666,31 +8810,31 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>470555.2294755999</v>
+        <v>1457331.309586575</v>
       </c>
       <c r="U15" t="n">
-        <v>80162.32914079999</v>
+        <v>234374.761452096</v>
       </c>
       <c r="V15" t="n">
-        <v>50894.01681474</v>
+        <v>165423.2450986098</v>
       </c>
       <c r="W15" t="n">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="Y15" t="n">
         <v>15000</v>
       </c>
       <c r="Z15" t="n">
-        <v>2160</v>
+        <v>2260</v>
       </c>
       <c r="AA15" t="n">
-        <v>4630</v>
+        <v>4730</v>
       </c>
       <c r="AB15" t="n">
-        <v>1080</v>
+        <v>1480</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -8711,7 +8855,7 @@
         <v>6</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
@@ -8724,28 +8868,40 @@
         </is>
       </c>
       <c r="AL15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO15" t="n">
         <v>771018.58809</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AP15" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AQ15" t="n">
         <v>153980.34625746</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AR15" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP15" t="n">
-        <v>112125.4</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
+      <c r="AS15" t="n">
+        <v>127529.2717618</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>733665.05</v>
+      </c>
+      <c r="AU15" t="n">
         <v>144808.912884415</v>
       </c>
-      <c r="AS15" t="n">
-        <v>1329422.397231875</v>
+      <c r="AV15" t="n">
+        <v>1961516.003929368</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4040007.322923044</v>
       </c>
     </row>
     <row r="16">
@@ -8782,7 +8938,7 @@
         <v>7</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L16" t="n">
         <v>88</v>
@@ -8809,31 +8965,31 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>478328.2991291999</v>
+        <v>1493002.183593635</v>
       </c>
       <c r="U16" t="n">
-        <v>81687.62993919999</v>
+        <v>240317.8274492832</v>
       </c>
       <c r="V16" t="n">
-        <v>51909.07406514</v>
+        <v>169544.1635758512</v>
       </c>
       <c r="W16" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="X16" t="n">
-        <v>1070</v>
+        <v>1270</v>
       </c>
       <c r="Y16" t="n">
         <v>15000</v>
       </c>
       <c r="Z16" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AA16" t="n">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="AB16" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -8854,7 +9010,7 @@
         <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
@@ -8867,28 +9023,40 @@
         </is>
       </c>
       <c r="AL16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO16" t="n">
         <v>771018.58809</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AP16" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AQ16" t="n">
         <v>153980.34625746</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AR16" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP16" t="n">
-        <v>112300.4</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="n">
+      <c r="AS16" t="n">
+        <v>127704.2717618</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>733665.05</v>
+      </c>
+      <c r="AU16" t="n">
         <v>168943.137236775</v>
       </c>
-      <c r="AS16" t="n">
-        <v>1353731.621584235</v>
+      <c r="AV16" t="n">
+        <v>2038955.090208799</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4141755.633554834</v>
       </c>
     </row>
     <row r="17">
@@ -8925,7 +9093,7 @@
         <v>8</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L17" t="n">
         <v>88</v>
@@ -8952,31 +9120,31 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1153987.5501711</v>
+        <v>2740077.113948412</v>
       </c>
       <c r="U17" t="n">
-        <v>193121.6826932</v>
+        <v>434598.6842572225</v>
       </c>
       <c r="V17" t="n">
-        <v>136906.98188</v>
+        <v>322480.78723136</v>
       </c>
       <c r="W17" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="X17" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="Y17" t="n">
         <v>15000</v>
       </c>
       <c r="Z17" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AA17" t="n">
-        <v>4980</v>
+        <v>5180</v>
       </c>
       <c r="AB17" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -8997,7 +9165,7 @@
         <v>8</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
@@ -9010,28 +9178,40 @@
         </is>
       </c>
       <c r="AL17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO17" t="n">
         <v>1760219.24596</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AP17" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AQ17" t="n">
         <v>350202.59367144</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AR17" t="n">
         <v>155697.55</v>
       </c>
-      <c r="AP17" t="n">
-        <v>683503.6000000001</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="n">
+      <c r="AS17" t="n">
+        <v>753879.3698384</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1172219.6</v>
+      </c>
+      <c r="AU17" t="n">
         <v>223831.86693274</v>
       </c>
-      <c r="AS17" t="n">
-        <v>3287723.80656418</v>
+      <c r="AV17" t="n">
+        <v>3079134.885500987</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>7609454.061903568</v>
       </c>
     </row>
     <row r="18">
@@ -9068,7 +9248,7 @@
         <v>10</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L18" t="n">
         <v>88</v>
@@ -9095,31 +9275,31 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5682283.017874001</v>
+        <v>9740113.409554921</v>
       </c>
       <c r="U18" t="n">
-        <v>952468.6228382</v>
+        <v>1515244.31792642</v>
       </c>
       <c r="V18" t="n">
-        <v>660846.89230066</v>
+        <v>1084025.894119594</v>
       </c>
       <c r="W18" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="X18" t="n">
-        <v>1910</v>
+        <v>2110</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AA18" t="n">
-        <v>5540</v>
+        <v>5740</v>
       </c>
       <c r="AB18" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -9140,7 +9320,7 @@
         <v>10</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
@@ -9153,28 +9333,40 @@
         </is>
       </c>
       <c r="AL18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO18" t="n">
         <v>10745023.44237</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AP18" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AQ18" t="n">
         <v>2137285.43141318</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AR18" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP18" t="n">
-        <v>2005624.4</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="n">
+      <c r="AS18" t="n">
+        <v>2865160.2753896</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>1719063.05</v>
+      </c>
+      <c r="AU18" t="n">
         <v>586361.722403195</v>
       </c>
-      <c r="AS18" t="n">
-        <v>16069567.64618638</v>
+      <c r="AV18" t="n">
+        <v>7798063.022858904</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>26446229.59443488</v>
       </c>
     </row>
     <row r="19">
@@ -9211,7 +9403,7 @@
         <v>10</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L19" t="n">
         <v>88</v>
@@ -9238,31 +9430,31 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>9272984.329588</v>
+        <v>16685589.47519955</v>
       </c>
       <c r="U19" t="n">
-        <v>1549227.2994638</v>
+        <v>2699218.799391059</v>
       </c>
       <c r="V19" t="n">
-        <v>1071273.68452906</v>
+        <v>1934765.656218087</v>
       </c>
       <c r="W19" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="X19" t="n">
-        <v>2820</v>
+        <v>3020</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AA19" t="n">
-        <v>6450</v>
+        <v>6650</v>
       </c>
       <c r="AB19" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -9283,7 +9475,7 @@
         <v>10</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
@@ -9296,28 +9488,40 @@
         </is>
       </c>
       <c r="AL19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>1,1,5000;2,1,5000;3,1,5000;4,1,5000;1,2,5000;2,2,5000;3,2,5000;4,2,5000;5,1,5000;5,2,5000</t>
+        </is>
+      </c>
+      <c r="AO19" t="n">
         <v>17439348.16918</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AP19" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AQ19" t="n">
         <v>3469447.64034712</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AR19" t="n">
         <v>1061573.2</v>
       </c>
-      <c r="AP19" t="n">
-        <v>3469133.2</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="n">
+      <c r="AS19" t="n">
+        <v>6084911.675377</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1719063.05</v>
+      </c>
+      <c r="AU19" t="n">
         <v>586361.722403195</v>
       </c>
-      <c r="AS19" t="n">
-        <v>26140132.88193032</v>
+      <c r="AV19" t="n">
+        <v>15980183.80694455</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>46455158.21425186</v>
       </c>
     </row>
     <row r="20">
@@ -9354,7 +9558,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
         <v>88</v>
@@ -9381,13 +9585,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>210943.70349675</v>
+        <v>217136.70349675</v>
       </c>
       <c r="U20" t="n">
-        <v>42803.14537125</v>
+        <v>44018.14537125</v>
       </c>
       <c r="V20" t="n">
-        <v>20984.4756204</v>
+        <v>21816.4756204</v>
       </c>
       <c r="W20" t="n">
         <v>1000</v>
@@ -9426,7 +9630,7 @@
         <v>1</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
@@ -9439,28 +9643,36 @@
         </is>
       </c>
       <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="n">
         <v>534795.5715500001</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AP20" t="n">
         <v>32846</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AQ20" t="n">
         <v>3398.4579882</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AR20" t="n">
         <v>14696.9</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AS20" t="n">
         <v>33824.8</v>
       </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
+      <c r="AT20" t="n">
+        <v>19360.5</v>
+      </c>
+      <c r="AU20" t="n">
         <v>12531.911837475</v>
       </c>
-      <c r="AS20" t="n">
-        <v>632093.641375675</v>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>651454.141375675</v>
       </c>
     </row>
     <row r="21">
@@ -9497,7 +9709,7 @@
         <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L21" t="n">
         <v>88</v>
@@ -9524,13 +9736,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>285286.042971</v>
+        <v>298098.921601</v>
       </c>
       <c r="U21" t="n">
-        <v>53322.1451844</v>
+        <v>55850.67082840001</v>
       </c>
       <c r="V21" t="n">
-        <v>29062.72734338</v>
+        <v>30739.30006538</v>
       </c>
       <c r="W21" t="n">
         <v>1250</v>
@@ -9569,7 +9781,7 @@
         <v>2</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
@@ -9582,28 +9794,36 @@
         </is>
       </c>
       <c r="AL21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="n">
         <v>630814.87251</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AP21" t="n">
         <v>49269</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AQ21" t="n">
         <v>44522.09828174001</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AR21" t="n">
         <v>19028.1</v>
       </c>
-      <c r="AP21" t="n">
-        <v>67649.60000000001</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="n">
+      <c r="AS21" t="n">
+        <v>73949.4987251</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>33600.1</v>
+      </c>
+      <c r="AU21" t="n">
         <v>16644.606176055</v>
       </c>
-      <c r="AS21" t="n">
-        <v>827928.2769677951</v>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>867828.2756928951</v>
       </c>
     </row>
     <row r="22">
@@ -9640,7 +9860,7 @@
         <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L22" t="n">
         <v>88</v>
@@ -9667,31 +9887,31 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>408393.8974155</v>
+        <v>535185.0814355825</v>
       </c>
       <c r="U22" t="n">
-        <v>71827.21919090001</v>
+        <v>90923.4822780489</v>
       </c>
       <c r="V22" t="n">
-        <v>43582.4676812</v>
+        <v>57752.5746215408</v>
       </c>
       <c r="W22" t="n">
-        <v>2300</v>
+        <v>2350</v>
       </c>
       <c r="X22" t="n">
-        <v>930</v>
+        <v>980</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>2160</v>
+        <v>2210</v>
       </c>
       <c r="AA22" t="n">
-        <v>4310</v>
+        <v>4360</v>
       </c>
       <c r="AB22" t="n">
-        <v>1080</v>
+        <v>1280</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -9712,7 +9932,7 @@
         <v>5</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
@@ -9725,28 +9945,40 @@
         </is>
       </c>
       <c r="AL22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO22" t="n">
         <v>793631.11884</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AP22" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN22" t="n">
+      <c r="AQ22" t="n">
         <v>107361.66245276</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AR22" t="n">
         <v>23382.7</v>
       </c>
-      <c r="AP22" t="n">
-        <v>97518.39999999999</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" t="n">
+      <c r="AS22" t="n">
+        <v>105446.4611884</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>45381.45</v>
+      </c>
+      <c r="AU22" t="n">
         <v>31157.06770685</v>
       </c>
-      <c r="AS22" t="n">
-        <v>1167319.89899961</v>
+      <c r="AV22" t="n">
+        <v>287324.0030399695</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>1507953.41322798</v>
       </c>
     </row>
     <row r="23">
@@ -9783,7 +10015,7 @@
         <v>7</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L23" t="n">
         <v>88</v>
@@ -9810,31 +10042,31 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>483084.43683835</v>
+        <v>701193.981411305</v>
       </c>
       <c r="U23" t="n">
-        <v>84082.81493380001</v>
+        <v>120550.4870330166</v>
       </c>
       <c r="V23" t="n">
-        <v>52201.10636728001</v>
+        <v>76791.57761180306</v>
       </c>
       <c r="W23" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="X23" t="n">
-        <v>1070</v>
+        <v>1270</v>
       </c>
       <c r="Y23" t="n">
         <v>15000</v>
       </c>
       <c r="Z23" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AA23" t="n">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="AB23" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -9855,7 +10087,7 @@
         <v>7</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
@@ -9868,28 +10100,40 @@
         </is>
       </c>
       <c r="AL23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO23" t="n">
         <v>865655.1698449999</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AP23" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN23" t="n">
+      <c r="AQ23" t="n">
         <v>172760.99986013</v>
       </c>
-      <c r="AO23" t="n">
+      <c r="AR23" t="n">
         <v>30363.65</v>
       </c>
-      <c r="AP23" t="n">
-        <v>152526</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="n">
+      <c r="AS23" t="n">
+        <v>169822.6033969</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>83035.39999999999</v>
+      </c>
+      <c r="AU23" t="n">
         <v>41118.9517883</v>
       </c>
-      <c r="AS23" t="n">
-        <v>1376693.72149343</v>
+      <c r="AV23" t="n">
+        <v>513199.6883166572</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>1990225.413206987</v>
       </c>
     </row>
     <row r="24">
@@ -9926,7 +10170,7 @@
         <v>8</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L24" t="n">
         <v>88</v>
@@ -9953,31 +10197,31 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>558983.88948</v>
+        <v>881215.5858656801</v>
       </c>
       <c r="U24" t="n">
-        <v>101765.7893376</v>
+        <v>156652.0926933472</v>
       </c>
       <c r="V24" t="n">
-        <v>63381.94006954</v>
+        <v>100587.6607532178</v>
       </c>
       <c r="W24" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="X24" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="Y24" t="n">
         <v>15000</v>
       </c>
       <c r="Z24" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AA24" t="n">
-        <v>4980</v>
+        <v>5180</v>
       </c>
       <c r="AB24" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -9998,7 +10242,7 @@
         <v>8</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
@@ -10011,28 +10255,40 @@
         </is>
       </c>
       <c r="AL24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO24" t="n">
         <v>979560.4601700001</v>
       </c>
-      <c r="AM24" t="n">
+      <c r="AP24" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN24" t="n">
+      <c r="AQ24" t="n">
         <v>195330.27973698</v>
       </c>
-      <c r="AO24" t="n">
+      <c r="AR24" t="n">
         <v>43173.05</v>
       </c>
-      <c r="AP24" t="n">
-        <v>257621.2</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR24" t="n">
+      <c r="AS24" t="n">
+        <v>296770.6184068</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>132671.4</v>
+      </c>
+      <c r="AU24" t="n">
         <v>49641.551402315</v>
       </c>
-      <c r="AS24" t="n">
-        <v>1639595.491309295</v>
+      <c r="AV24" t="n">
+        <v>745459.2650646833</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>2556875.574780778</v>
       </c>
     </row>
     <row r="25">
@@ -10069,7 +10325,7 @@
         <v>10</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L25" t="n">
         <v>88</v>
@@ -10096,31 +10352,31 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>715675.6149729999</v>
+        <v>1507436.49533736</v>
       </c>
       <c r="U25" t="n">
-        <v>137921.3002534</v>
+        <v>268037.8786509054</v>
       </c>
       <c r="V25" t="n">
-        <v>86284.18639698</v>
+        <v>175274.4131424102</v>
       </c>
       <c r="W25" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="X25" t="n">
-        <v>1910</v>
+        <v>2110</v>
       </c>
       <c r="Y25" t="n">
         <v>15000</v>
       </c>
       <c r="Z25" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AA25" t="n">
-        <v>5540</v>
+        <v>5740</v>
       </c>
       <c r="AB25" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
@@ -10141,7 +10397,7 @@
         <v>10</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
@@ -10154,28 +10410,40 @@
         </is>
       </c>
       <c r="AL25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO25" t="n">
         <v>1216940.38049</v>
       </c>
-      <c r="AM25" t="n">
+      <c r="AP25" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN25" t="n">
+      <c r="AQ25" t="n">
         <v>242401.80575246</v>
       </c>
-      <c r="AO25" t="n">
+      <c r="AR25" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP25" t="n">
-        <v>467803.6</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="n">
+      <c r="AS25" t="n">
+        <v>565092.8304392</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>194575.4</v>
+      </c>
+      <c r="AU25" t="n">
         <v>68672.972261635</v>
       </c>
-      <c r="AS25" t="n">
-        <v>2178848.158504095</v>
+      <c r="AV25" t="n">
+        <v>1911794.44465417</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>4382507.233597466</v>
       </c>
     </row>
   </sheetData>
